--- a/Results/Categorization/lda-partial-ner-w2v-money.xlsx
+++ b/Results/Categorization/lda-partial-ner-w2v-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="1897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="1917">
   <si>
     <t>id</t>
   </si>
@@ -4036,517 +4036,559 @@
     <t>FOOD|SERVICE|AMBIENCE|FOOD</t>
   </si>
   <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>PRICES|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|PRICES|SERVICE</t>
+    <t>SERVICE|PRICES|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|SERVICE|SERVICE|SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES|SERVICE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD||AMBIENCE|SERVICE|AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|SERVICE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE|PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD|</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD||FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|SERVICE|FOOD|PRICES|PRICES|PRICES||SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE||FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES|PRICES|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE||FOOD|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES|PRICES|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
   </si>
   <si>
     <t>SERVICE|AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|SERVICE|SERVICE|SERVICE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|PRICES|FOOD|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES|SERVICE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|AMBIENCE</t>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|SERVICE|SERVICE|FOOD|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE||SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|PRICES|FOOD|AMBIENCE|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD|PRICES|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|PRICES|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|PRICES|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES|FOOD|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|SERVICE|FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE|AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|</t>
-  </si>
-  <si>
-    <t>FOOD||FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE||PRICES|</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>SERVICE|PRICES</t>
   </si>
   <si>
-    <t>PRICES|PRICES|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD||FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|SERVICE|FOOD|PRICES|PRICES|PRICES||SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|PRICES|PRICES</t>
+    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|PRICES|PRICES|</t>
+  </si>
+  <si>
+    <t>|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES|PRICES|</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD||||AMBIENCE|FOOD|FOOD|||||AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES|SERVICE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE||FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES|PRICES|AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE||FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE|PRICES|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|PRICES|PRICES|PRICES</t>
   </si>
   <si>
     <t>SERVICE|PRICES|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|FOOD|SERVICE|SERVICE|FOOD|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE||SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|SERVICE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|PRICES|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|PRICES|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|FOOD|AMBIENCE|FOOD|PRICES|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|PRICES|FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE||PRICES|</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|FOOD|FOOD|PRICES|</t>
-  </si>
-  <si>
-    <t>|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES|</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD||||AMBIENCE|FOOD|FOOD||AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE||FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|SERVICE||FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|SERVICE|PRICES</t>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|PRICES|SERVICE|PRICES</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD|FOOD|PRICES</t>
   </si>
   <si>
-    <t>PRICES|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
+    <t>PRICES|AMBIENCE|PRICES|PRICES</t>
   </si>
   <si>
     <t>place|like</t>
@@ -4561,16 +4603,16 @@
     <t>good|list|rest|wine</t>
   </si>
   <si>
-    <t>away</t>
+    <t>away|rice|rice</t>
   </si>
   <si>
     <t>share|family</t>
   </si>
   <si>
-    <t>service|price|come</t>
-  </si>
-  <si>
-    <t>service|always|everything</t>
+    <t>service|price|rice|come</t>
+  </si>
+  <si>
+    <t>service|always</t>
   </si>
   <si>
     <t>edible|special</t>
@@ -4612,10 +4654,10 @@
     <t>fresh|adequately|seemed|sushi|pretty</t>
   </si>
   <si>
-    <t>good|fish</t>
-  </si>
-  <si>
-    <t>price|well|sushi</t>
+    <t>good|fish|rice|rice</t>
+  </si>
+  <si>
+    <t>price|well|sushi|rice</t>
   </si>
   <si>
     <t>service|well|food</t>
@@ -4624,7 +4666,7 @@
     <t>prix|fixe|menu|penny|quantity|quality</t>
   </si>
   <si>
-    <t>fresh|food|filled|much|continually|refilled|tasty|$6</t>
+    <t>fresh|food|filled|much|continually|refilled|tasty|$6!-</t>
   </si>
   <si>
     <t>great|dish</t>
@@ -4633,19 +4675,16 @@
     <t>good|food|like</t>
   </si>
   <si>
-    <t>service|sometimes|sometimes</t>
-  </si>
-  <si>
     <t>bland|spicy|food|like</t>
   </si>
   <si>
     <t>ambience|pretty|casual|would</t>
   </si>
   <si>
-    <t>idea|view|chart|house</t>
-  </si>
-  <si>
-    <t>great|great|great|service|price|food|reasonable</t>
+    <t>river|weehawken|idea|top|view|chart|house</t>
+  </si>
+  <si>
+    <t>great|great|great|service|price|food|rice|reasonable</t>
   </si>
   <si>
     <t>edible|dessert|recommend</t>
@@ -4666,7 +4705,7 @@
     <t>pizza|live</t>
   </si>
   <si>
-    <t>pizza|price</t>
+    <t>pizza|price|rice</t>
   </si>
   <si>
     <t>good|pizza</t>
@@ -4693,7 +4732,7 @@
     <t>always|always|young|friendly|nevertheless|wife|well</t>
   </si>
   <si>
-    <t>price|wine|reasonable</t>
+    <t>price|wine|rice|reasonable</t>
   </si>
   <si>
     <t>great|delicious|service|food|come</t>
@@ -4711,13 +4750,13 @@
     <t>great|always|wine</t>
   </si>
   <si>
-    <t>sometimes|always|friendly|forget|work|people</t>
+    <t>always|friendly|forget|work|people</t>
   </si>
   <si>
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20,</t>
+    <t>toppings|$20!-|$3!-</t>
   </si>
   <si>
     <t>good</t>
@@ -4726,12 +4765,21 @@
     <t>food|much</t>
   </si>
   <si>
+    <t>food|waitress</t>
+  </si>
+  <si>
     <t>great|service|friendly</t>
   </si>
   <si>
     <t>great|pizza|service</t>
   </si>
   <si>
+    <t>end|block</t>
+  </si>
+  <si>
+    <t>city|york|sushi</t>
+  </si>
+  <si>
     <t>food|place</t>
   </si>
   <si>
@@ -4741,7 +4789,7 @@
     <t>great|always|food|sushi</t>
   </si>
   <si>
-    <t>great|price|atmosphere</t>
+    <t>great|price|atmosphere|rice</t>
   </si>
   <si>
     <t>looked|dumpling|appetizer</t>
@@ -4762,7 +4810,7 @@
     <t>restaurant|charm|rest|warm</t>
   </si>
   <si>
-    <t>great|great|price|selection|wine</t>
+    <t>great|great|price|selection|wine|rice</t>
   </si>
   <si>
     <t>good|food|find|vibe</t>
@@ -4780,13 +4828,16 @@
     <t>spicy|roll</t>
   </si>
   <si>
+    <t>lobster</t>
+  </si>
+  <si>
     <t>pretty</t>
   </si>
   <si>
-    <t>price|dessert|$8.00...just</t>
-  </si>
-  <si>
-    <t>made|price|always|well|selection|wine</t>
+    <t>price|rice|dessert|$8.00!-</t>
+  </si>
+  <si>
+    <t>made|price|always|well|selection|wine|rice</t>
   </si>
   <si>
     <t>special</t>
@@ -4801,10 +4852,10 @@
     <t>delight|delicious|food</t>
   </si>
   <si>
-    <t>price|well|well|rest|wine</t>
-  </si>
-  <si>
-    <t>sitting|bathroom|order</t>
+    <t>price|well|well|rest|wine|rice</t>
+  </si>
+  <si>
+    <t>sitting|waitress|bathroom|order</t>
   </si>
   <si>
     <t>restaurant|service|away|rest|food</t>
@@ -4831,669 +4882,678 @@
     <t>mozzarella|appetizer|selection|would</t>
   </si>
   <si>
-    <t>staff|business</t>
+    <t>staff|business|pie|uws</t>
+  </si>
+  <si>
+    <t>restaurant|salad|rest|food</t>
+  </si>
+  <si>
+    <t>service|warm</t>
+  </si>
+  <si>
+    <t>staff|nonsense</t>
+  </si>
+  <si>
+    <t>would|would|still|else|lived|live</t>
+  </si>
+  <si>
+    <t>roll|served</t>
+  </si>
+  <si>
+    <t>looked|sake</t>
+  </si>
+  <si>
+    <t>roll|special|lobster</t>
+  </si>
+  <si>
+    <t>good|service</t>
+  </si>
+  <si>
+    <t>good|well|though|food|selection|order</t>
+  </si>
+  <si>
+    <t>good|list|filled|selection|wine|wine</t>
+  </si>
+  <si>
+    <t>restaurant|though|rest</t>
+  </si>
+  <si>
+    <t>restaurant|always|though|rest</t>
+  </si>
+  <si>
+    <t>good|fresh|though|food|order</t>
+  </si>
+  <si>
+    <t>take|salad|atmosphere|order|lobster|jazz|cobb|live|band|taken</t>
+  </si>
+  <si>
+    <t>delicious|made|food|food</t>
+  </si>
+  <si>
+    <t>served|food</t>
+  </si>
+  <si>
+    <t>good|made|laugh|hidden|bathroom|place</t>
+  </si>
+  <si>
+    <t>delicious|made|dish|guest|food|must|must|recommend|tortelini|happy|band</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>service|bart|food|must</t>
+  </si>
+  <si>
+    <t>fresh|high|roll|highly|much|recommend|lobster|lobster</t>
+  </si>
+  <si>
+    <t>pizza|chip|enjoyed|salad|santa|chopped|fish|guest</t>
+  </si>
+  <si>
+    <t>service|high|ambience|bart|food|wonderful|highly|recommend</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>dumpling</t>
+  </si>
+  <si>
+    <t>restaurant|good|service|rest</t>
+  </si>
+  <si>
+    <t>roll|sushi|pretty|average</t>
+  </si>
+  <si>
+    <t>delicious|else</t>
+  </si>
+  <si>
+    <t>service|price|though|rice|reasonable</t>
+  </si>
+  <si>
+    <t>restaurant|fresh|fresh|delicious|rest|food</t>
+  </si>
+  <si>
+    <t>hats|chef</t>
+  </si>
+  <si>
+    <t>fresh|delicious|spicy|salad</t>
+  </si>
+  <si>
+    <t>fish|special</t>
+  </si>
+  <si>
+    <t>great|people|vibe</t>
+  </si>
+  <si>
+    <t>atmosphere|much|like</t>
+  </si>
+  <si>
+    <t>good|though|ambience</t>
+  </si>
+  <si>
+    <t>great|salad|though</t>
+  </si>
+  <si>
+    <t>good|sushi</t>
+  </si>
+  <si>
+    <t>spicy|price|roll|rice</t>
+  </si>
+  <si>
+    <t>good|well</t>
+  </si>
+  <si>
+    <t>food|order|$18!-</t>
+  </si>
+  <si>
+    <t>great|service|price|food|rice</t>
+  </si>
+  <si>
+    <t>price|dish|rice|rice|come|congee|noodle|reasonable|$3-6!-</t>
+  </si>
+  <si>
+    <t>great|high|well|take</t>
+  </si>
+  <si>
+    <t>wife|enjoyed|salad|tasty</t>
+  </si>
+  <si>
+    <t>fresh|dish|pasta|served</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>delicious|food|place</t>
+  </si>
+  <si>
+    <t>visit|manager</t>
+  </si>
+  <si>
+    <t>good|service|food</t>
+  </si>
+  <si>
+    <t>good|good|service|service|food</t>
+  </si>
+  <si>
+    <t>dish|served|atmosphere|wine|place</t>
+  </si>
+  <si>
+    <t>good|pizza|place</t>
+  </si>
+  <si>
+    <t>delicious|though|still</t>
+  </si>
+  <si>
+    <t>pizza|taste</t>
+  </si>
+  <si>
+    <t>good|pretty|tasty</t>
+  </si>
+  <si>
+    <t>bombay|beer</t>
+  </si>
+  <si>
+    <t>service|friendly|people</t>
+  </si>
+  <si>
+    <t>delicious|food</t>
+  </si>
+  <si>
+    <t>pizza|made|pasta</t>
+  </si>
+  <si>
+    <t>delight|service|ambience</t>
+  </si>
+  <si>
+    <t>food|still</t>
+  </si>
+  <si>
+    <t>taste|like|like|hanger|rubber</t>
+  </si>
+  <si>
+    <t>great|service|ambience</t>
+  </si>
+  <si>
+    <t>restaurant|service|rest|food</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>ambience|like</t>
+  </si>
+  <si>
+    <t>dish|noodle|order</t>
+  </si>
+  <si>
+    <t>good|meal|place</t>
+  </si>
+  <si>
+    <t>good|place</t>
+  </si>
+  <si>
+    <t>pizza|service|made|wine|place</t>
+  </si>
+  <si>
+    <t>city|place|romantic|claimed</t>
+  </si>
+  <si>
+    <t>restaurant|price|list|rest|wine|rice</t>
+  </si>
+  <si>
+    <t>list|selection|wine|listed|average|$70!-|$30!-</t>
+  </si>
+  <si>
+    <t>service|price|rice|would</t>
+  </si>
+  <si>
+    <t>working|charm|grazie|proper|constant|mille|service|constitute|somehow|work</t>
+  </si>
+  <si>
+    <t>food|could|average</t>
+  </si>
+  <si>
+    <t>meal|bland|flavoring|weird|rosemary|made|edible</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>place|would</t>
+  </si>
+  <si>
+    <t>left|dessert|recommend|else</t>
+  </si>
+  <si>
+    <t>fresh|delicious|service|fish</t>
+  </si>
+  <si>
+    <t>appetizer</t>
+  </si>
+  <si>
+    <t>pizza|family|blow|away|pizzeria|receipies|come</t>
+  </si>
+  <si>
+    <t>service|place</t>
+  </si>
+  <si>
+    <t>great|great|restaurant|service|rest|food|atmosphere</t>
+  </si>
+  <si>
+    <t>fresh|music</t>
+  </si>
+  <si>
+    <t>service|meal</t>
+  </si>
+  <si>
+    <t>service|wonderful</t>
+  </si>
+  <si>
+    <t>great|service|special|place|romantic</t>
+  </si>
+  <si>
+    <t>great|good|price|price|food|food|food|food|food|rice|rice|like</t>
+  </si>
+  <si>
+    <t>place|much</t>
+  </si>
+  <si>
+    <t>characters|experience</t>
+  </si>
+  <si>
+    <t>service|though|food|order</t>
+  </si>
+  <si>
+    <t>price|rice</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>high|price|rest|rice</t>
+  </si>
+  <si>
+    <t>ambiance|boot</t>
+  </si>
+  <si>
+    <t>sushi|special|atmosphere|like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>cheap|service|price|food|rice</t>
+  </si>
+  <si>
+    <t>restaurant|list|rest|romantic</t>
+  </si>
+  <si>
+    <t>price|food|wine|rice</t>
+  </si>
+  <si>
+    <t>secret|room</t>
+  </si>
+  <si>
+    <t>great|service|always</t>
+  </si>
+  <si>
+    <t>hostess|waitress|could</t>
+  </si>
+  <si>
+    <t>waitress|dessert|order</t>
+  </si>
+  <si>
+    <t>service|price|price|food|place|rice|rice|like</t>
+  </si>
+  <si>
+    <t>dish|average</t>
+  </si>
+  <si>
+    <t>service|though</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>restaurant|rest|must</t>
+  </si>
+  <si>
+    <t>cheap|price|rice</t>
+  </si>
+  <si>
+    <t>great|cheap|food</t>
+  </si>
+  <si>
+    <t>chip|come|like|$7!-</t>
+  </si>
+  <si>
+    <t>sitting|uncomfortable|wooden</t>
+  </si>
+  <si>
+    <t>good|good|service|ambience</t>
+  </si>
+  <si>
+    <t>restaurant|price|rest|rice</t>
+  </si>
+  <si>
+    <t>good|high|price|though|food|rice</t>
+  </si>
+  <si>
+    <t>good|price|though|rice|lobster|$24!-</t>
+  </si>
+  <si>
+    <t>knew|gift|opening|special|sort|dessert|must|card|candle|birthday</t>
+  </si>
+  <si>
+    <t>mark|waiter</t>
+  </si>
+  <si>
+    <t>cheap|food</t>
+  </si>
+  <si>
+    <t>great|delight|$10!-</t>
+  </si>
+  <si>
+    <t>price|list|wine|rice</t>
+  </si>
+  <si>
+    <t>great|atmosphere|come|would</t>
+  </si>
+  <si>
+    <t>great|great|good|food|place</t>
+  </si>
+  <si>
+    <t>work|people|wrong|evil|like</t>
+  </si>
+  <si>
+    <t>service|served|people</t>
+  </si>
+  <si>
+    <t>good|waitress|waitress</t>
+  </si>
+  <si>
+    <t>away|work</t>
+  </si>
+  <si>
+    <t>great|good|place|would</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>great|price|ambience|food|rice|tasty</t>
+  </si>
+  <si>
+    <t>restaurant|service|rest</t>
+  </si>
+  <si>
+    <t>much|order</t>
+  </si>
+  <si>
+    <t>great|price|food|rice</t>
+  </si>
+  <si>
+    <t>weather|snag|table</t>
+  </si>
+  <si>
+    <t>seemed|bathroom</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>meal|friendly</t>
+  </si>
+  <si>
+    <t>well|music</t>
+  </si>
+  <si>
+    <t>sitting</t>
+  </si>
+  <si>
+    <t>wonderful|special|place</t>
+  </si>
+  <si>
+    <t>waiter|money|guys|outta</t>
+  </si>
+  <si>
+    <t>bit|menu</t>
+  </si>
+  <si>
+    <t>cheap|food|could</t>
+  </si>
+  <si>
+    <t>wait|staff</t>
+  </si>
+  <si>
+    <t>price|taste|rice</t>
+  </si>
+  <si>
+    <t>great|take|place</t>
+  </si>
+  <si>
+    <t>price|place|rice</t>
+  </si>
+  <si>
+    <t>take|else</t>
+  </si>
+  <si>
+    <t>well|place</t>
+  </si>
+  <si>
+    <t>great|music|like|100 dollar!-</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>price|food|rice</t>
+  </si>
+  <si>
+    <t>delight|place</t>
+  </si>
+  <si>
+    <t>wonderful|$*!-</t>
+  </si>
+  <si>
+    <t>delight|atmosphere</t>
+  </si>
+  <si>
+    <t>great|great|homey|setting|vanilla|music|recommend|$8.50!-</t>
+  </si>
+  <si>
+    <t>good|request|lady|take|music|taste|moreover|outrageously</t>
+  </si>
+  <si>
+    <t>good|price|rice|reasonable</t>
+  </si>
+  <si>
+    <t>restaurant|working|work|rest</t>
+  </si>
+  <si>
+    <t>setting|casual|romantic</t>
+  </si>
+  <si>
+    <t>price|though|rest|rice</t>
+  </si>
+  <si>
+    <t>atmosphere|like</t>
+  </si>
+  <si>
+    <t>service|friendly|casual|atmosphere</t>
+  </si>
+  <si>
+    <t>city|price|place|rice</t>
+  </si>
+  <si>
+    <t>service|served|place|much|would</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>great|price|though|rice</t>
+  </si>
+  <si>
+    <t>guest|ambience|place|like</t>
+  </si>
+  <si>
+    <t>great|great|great|service|price|food|rice</t>
+  </si>
+  <si>
+    <t>good|cheap|place</t>
+  </si>
+  <si>
+    <t>great|service|place|place|romantic|live</t>
+  </si>
+  <si>
+    <t>meal|price|list|wine|rice</t>
+  </si>
+  <si>
+    <t>still|courtesey|measure|liquers</t>
+  </si>
+  <si>
+    <t>waiters|chin</t>
+  </si>
+  <si>
+    <t>romantic</t>
+  </si>
+  <si>
+    <t>great|great|price|food|place|rice</t>
+  </si>
+  <si>
+    <t>sitting|high</t>
+  </si>
+  <si>
+    <t>friendly|warm|warm</t>
+  </si>
+  <si>
+    <t>great|good|price|food|wine|rice|reasonable|selecion</t>
+  </si>
+  <si>
+    <t>good|price|rice</t>
+  </si>
+  <si>
+    <t>price|food|rice|would|average</t>
+  </si>
+  <si>
+    <t>great|place</t>
+  </si>
+  <si>
+    <t>good|cheap|food</t>
+  </si>
+  <si>
+    <t>good|atmosphere</t>
+  </si>
+  <si>
+    <t>good|cheap|wine</t>
+  </si>
+  <si>
+    <t>drinks|half</t>
+  </si>
+  <si>
+    <t>toons|redone|space</t>
+  </si>
+  <si>
+    <t>delight|york</t>
+  </si>
+  <si>
+    <t>great|price|food|rice|reasonable</t>
+  </si>
+  <si>
+    <t>good|edible|price|food|rice</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>great|good|service|price|music|food|rice</t>
+  </si>
+  <si>
+    <t>price|fish|rice</t>
+  </si>
+  <si>
+    <t>restaurant|good|cheap|price|price|friendly|rest|food|village|rice|rice|rice|like</t>
+  </si>
+  <si>
+    <t>restaurant|good|service|price|work|rest|food|rice</t>
+  </si>
+  <si>
+    <t>service|price|though|food|rice</t>
+  </si>
+  <si>
+    <t>price|food|rice|reasonable</t>
+  </si>
+  <si>
+    <t>sushi|$20!-</t>
+  </si>
+  <si>
+    <t>price|chip|fish|rice|$15!-</t>
+  </si>
+  <si>
+    <t>restaurant|city|york|rest|warm</t>
+  </si>
+  <si>
+    <t>setting|like</t>
+  </si>
+  <si>
+    <t>good|meal|though|$60!-</t>
+  </si>
+  <si>
+    <t>away|hidden|place</t>
+  </si>
+  <si>
+    <t>atmosphere|come</t>
+  </si>
+  <si>
+    <t>service|price|food|rice</t>
+  </si>
+  <si>
+    <t>season|charge</t>
+  </si>
+  <si>
+    <t>dinner|manhattan|feet|$400.00!-</t>
+  </si>
+  <si>
+    <t>garden|area</t>
+  </si>
+  <si>
+    <t>bland|$11!-</t>
+  </si>
+  <si>
+    <t>good|food|place</t>
+  </si>
+  <si>
+    <t>high|highly|place|recommend</t>
+  </si>
+  <si>
+    <t>water|table|voss|bottles|water|piece|$8!-</t>
+  </si>
+  <si>
+    <t>view|river|nyc</t>
+  </si>
+  <si>
+    <t>good|price|friendly|people|food|rice</t>
+  </si>
+  <si>
+    <t>high|price|food|rice</t>
+  </si>
+  <si>
+    <t>bathroom|bathroom</t>
+  </si>
+  <si>
+    <t>price|rest|rice|would</t>
+  </si>
+  <si>
+    <t>great|romantic</t>
   </si>
   <si>
     <t>restaurant|rest|food</t>
   </si>
   <si>
-    <t>service|warm</t>
-  </si>
-  <si>
-    <t>staff|nonsense</t>
-  </si>
-  <si>
-    <t>would|would|still|else|lived|live</t>
-  </si>
-  <si>
-    <t>roll|served</t>
-  </si>
-  <si>
-    <t>looked|sake</t>
-  </si>
-  <si>
-    <t>roll|special</t>
-  </si>
-  <si>
-    <t>good|service</t>
-  </si>
-  <si>
-    <t>good|well|though|food|selection|order</t>
-  </si>
-  <si>
-    <t>good|list|filled|selection|wine|wine</t>
-  </si>
-  <si>
-    <t>restaurant|though|rest</t>
-  </si>
-  <si>
-    <t>restaurant|always|though|rest</t>
-  </si>
-  <si>
-    <t>good|fresh|though|food|order</t>
-  </si>
-  <si>
-    <t>take|atmosphere|order|jazz|live|band|taken</t>
-  </si>
-  <si>
-    <t>delicious|made|food|food</t>
-  </si>
-  <si>
-    <t>served|food</t>
-  </si>
-  <si>
-    <t>good|made|laugh|hidden|bathroom|place</t>
-  </si>
-  <si>
-    <t>delicious|made|dish|guest|food|must|must|recommend|tortelini|happy|band</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>service|food|must</t>
-  </si>
-  <si>
-    <t>fresh|high|roll|highly|much|recommend</t>
-  </si>
-  <si>
-    <t>pizza|chip|enjoyed|santa|chopped|fish|guest</t>
-  </si>
-  <si>
-    <t>service|high|ambience|food|wonderful|highly|recommend</t>
-  </si>
-  <si>
-    <t>bland</t>
-  </si>
-  <si>
-    <t>dumpling</t>
-  </si>
-  <si>
-    <t>restaurant|good|service|rest</t>
-  </si>
-  <si>
-    <t>roll|sushi|pretty|average</t>
-  </si>
-  <si>
-    <t>delicious|everything|else</t>
-  </si>
-  <si>
-    <t>service|price|though|reasonable</t>
-  </si>
-  <si>
-    <t>restaurant|fresh|fresh|delicious|rest|food</t>
-  </si>
-  <si>
-    <t>hats</t>
-  </si>
-  <si>
-    <t>fresh|delicious|spicy</t>
-  </si>
-  <si>
-    <t>fish|special</t>
-  </si>
-  <si>
-    <t>great|people|vibe</t>
-  </si>
-  <si>
-    <t>atmosphere|much|like</t>
-  </si>
-  <si>
-    <t>good|though|ambience</t>
-  </si>
-  <si>
-    <t>great|though</t>
-  </si>
-  <si>
-    <t>good|sushi</t>
-  </si>
-  <si>
-    <t>spicy|price|roll</t>
-  </si>
-  <si>
-    <t>good|well</t>
-  </si>
-  <si>
-    <t>food|order|$18</t>
-  </si>
-  <si>
-    <t>great|service|price|food</t>
-  </si>
-  <si>
-    <t>price|dish|come|congee|noodle|reasonable|$3-6</t>
-  </si>
-  <si>
-    <t>great|high|well|take</t>
-  </si>
-  <si>
-    <t>wife|enjoyed|tasty</t>
-  </si>
-  <si>
-    <t>fresh|dish|timely|pasta|served</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>delicious|food|place</t>
-  </si>
-  <si>
-    <t>visit</t>
-  </si>
-  <si>
-    <t>good|service|sometimes|food</t>
-  </si>
-  <si>
-    <t>good|good|service|service|sometimes|sometimes|food</t>
-  </si>
-  <si>
-    <t>dish|served|atmosphere|wine|place</t>
-  </si>
-  <si>
-    <t>good|pizza|place</t>
-  </si>
-  <si>
-    <t>delicious|though|still</t>
-  </si>
-  <si>
-    <t>pizza|taste</t>
-  </si>
-  <si>
-    <t>good|pretty|tasty</t>
-  </si>
-  <si>
-    <t>beer</t>
-  </si>
-  <si>
-    <t>service|friendly|people</t>
-  </si>
-  <si>
-    <t>delicious|food</t>
-  </si>
-  <si>
-    <t>pizza|made|pasta</t>
-  </si>
-  <si>
-    <t>delight|service|ambience</t>
-  </si>
-  <si>
-    <t>food|still</t>
-  </si>
-  <si>
-    <t>taste|like|like|hanger</t>
-  </si>
-  <si>
-    <t>great|service|ambience</t>
-  </si>
-  <si>
-    <t>restaurant|service|rest|food</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>ambience|like</t>
-  </si>
-  <si>
-    <t>dish|noodle|order</t>
-  </si>
-  <si>
-    <t>good|meal|place</t>
-  </si>
-  <si>
-    <t>good|place</t>
-  </si>
-  <si>
-    <t>pizza|service|made|wine|place</t>
-  </si>
-  <si>
-    <t>place|romantic|claimed</t>
-  </si>
-  <si>
-    <t>restaurant|price|list|rest|wine</t>
-  </si>
-  <si>
-    <t>list|selection|wine|listed|average|$70+</t>
-  </si>
-  <si>
-    <t>service|price|would</t>
-  </si>
-  <si>
-    <t>working|charm|grazie|proper|constant|mille|service|constitute|somehow|work</t>
-  </si>
-  <si>
-    <t>food|could|average</t>
-  </si>
-  <si>
-    <t>meal|bland|flavoring|weird|rosemary|made|edible</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>place|would</t>
-  </si>
-  <si>
-    <t>left|dessert|recommend|else</t>
-  </si>
-  <si>
-    <t>fresh|delicious|service|fish</t>
-  </si>
-  <si>
-    <t>appetizer</t>
-  </si>
-  <si>
-    <t>pizza|family|blow|away|pizzeria|receipies|come</t>
-  </si>
-  <si>
-    <t>service|place</t>
-  </si>
-  <si>
-    <t>great|great|restaurant|service|rest|food|atmosphere</t>
-  </si>
-  <si>
-    <t>fresh|music</t>
-  </si>
-  <si>
-    <t>service|meal</t>
-  </si>
-  <si>
-    <t>service|wonderful</t>
-  </si>
-  <si>
-    <t>great|service|special|place|romantic</t>
-  </si>
-  <si>
-    <t>great|good|price|price|food|food|food|food|food|like</t>
-  </si>
-  <si>
-    <t>place|much</t>
-  </si>
-  <si>
-    <t>characters|experience</t>
-  </si>
-  <si>
-    <t>service|though|food|order</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>high|price|rest</t>
-  </si>
-  <si>
-    <t>ambiance|boot</t>
-  </si>
-  <si>
-    <t>sushi|special|atmosphere|like</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>cheap|service|price|food</t>
-  </si>
-  <si>
-    <t>restaurant|list|rest|romantic</t>
-  </si>
-  <si>
-    <t>price|food|wine</t>
-  </si>
-  <si>
-    <t>secret|room</t>
-  </si>
-  <si>
-    <t>great|service|always</t>
-  </si>
-  <si>
-    <t>everything|could</t>
-  </si>
-  <si>
-    <t>dessert|order</t>
-  </si>
-  <si>
-    <t>service|price|price|food|place|like</t>
-  </si>
-  <si>
-    <t>dish|average</t>
-  </si>
-  <si>
-    <t>service|though</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>restaurant|rest|must</t>
-  </si>
-  <si>
-    <t>cheap|price</t>
-  </si>
-  <si>
-    <t>great|cheap|food</t>
-  </si>
-  <si>
-    <t>chip|come|like|$7)</t>
-  </si>
-  <si>
-    <t>sitting|uncomfortable|wooden</t>
-  </si>
-  <si>
-    <t>good|good|service|ambience</t>
-  </si>
-  <si>
-    <t>restaurant|price|rest</t>
-  </si>
-  <si>
-    <t>good|high|price|though|food</t>
-  </si>
-  <si>
-    <t>good|price|though|$24</t>
-  </si>
-  <si>
-    <t>knew|gift|opening|special|sort|dessert|must|card|candle|birthday</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>cheap|food</t>
-  </si>
-  <si>
-    <t>great|delight|$10.</t>
-  </si>
-  <si>
-    <t>price|list|wine</t>
-  </si>
-  <si>
-    <t>great|atmosphere|come|would</t>
-  </si>
-  <si>
-    <t>great|great|good|food|place</t>
-  </si>
-  <si>
-    <t>work|people|wrong|evil|like</t>
-  </si>
-  <si>
-    <t>service|served|people|everything</t>
-  </si>
-  <si>
-    <t>away|work</t>
-  </si>
-  <si>
-    <t>great|good|place|would</t>
-  </si>
-  <si>
-    <t>charm</t>
-  </si>
-  <si>
-    <t>great|price|ambience|food|tasty</t>
-  </si>
-  <si>
-    <t>restaurant|service|rest</t>
-  </si>
-  <si>
-    <t>much|order</t>
-  </si>
-  <si>
-    <t>great|price|food</t>
-  </si>
-  <si>
-    <t>weather|snag|table</t>
-  </si>
-  <si>
-    <t>seemed|bathroom</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>meal|friendly</t>
-  </si>
-  <si>
-    <t>well|music</t>
-  </si>
-  <si>
-    <t>sitting</t>
-  </si>
-  <si>
-    <t>wonderful|special|place|money.</t>
-  </si>
-  <si>
-    <t>money|guys|outta|money</t>
-  </si>
-  <si>
-    <t>cheap|food|could</t>
-  </si>
-  <si>
-    <t>wait|staff</t>
-  </si>
-  <si>
-    <t>price|taste</t>
-  </si>
-  <si>
-    <t>great|take|place</t>
-  </si>
-  <si>
-    <t>price|place</t>
-  </si>
-  <si>
-    <t>take|else</t>
-  </si>
-  <si>
-    <t>well|place</t>
-  </si>
-  <si>
-    <t>great|music|like</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>price|food</t>
-  </si>
-  <si>
-    <t>delight|place</t>
-  </si>
-  <si>
-    <t>wonderful|she's-way-cuter-than-me-that-b@#$*</t>
-  </si>
-  <si>
-    <t>delight|atmosphere</t>
-  </si>
-  <si>
-    <t>great|great|homey|setting|vanilla|music|recommend|$8.50</t>
-  </si>
-  <si>
-    <t>good|request|lady|take|music|taste|moreover|outrageously</t>
-  </si>
-  <si>
-    <t>good|price|reasonable</t>
-  </si>
-  <si>
-    <t>restaurant|working|work|rest</t>
-  </si>
-  <si>
-    <t>setting|casual|romantic</t>
-  </si>
-  <si>
-    <t>price|though|rest</t>
-  </si>
-  <si>
-    <t>atmosphere|like</t>
-  </si>
-  <si>
-    <t>service|friendly|casual|atmosphere</t>
-  </si>
-  <si>
-    <t>service|served|place|much|would</t>
-  </si>
-  <si>
-    <t>management</t>
-  </si>
-  <si>
-    <t>great|price|though</t>
-  </si>
-  <si>
-    <t>guest|ambience|place|like</t>
-  </si>
-  <si>
-    <t>great|great|great|service|price|food</t>
-  </si>
-  <si>
-    <t>good|cheap|place</t>
-  </si>
-  <si>
-    <t>great|service|place|place|romantic|live</t>
-  </si>
-  <si>
-    <t>meal|price|list|wine</t>
-  </si>
-  <si>
-    <t>still|courtesey|measure|liquers</t>
-  </si>
-  <si>
-    <t>thing|waiters|chin</t>
-  </si>
-  <si>
-    <t>romantic</t>
-  </si>
-  <si>
-    <t>great|great|price|food|place</t>
-  </si>
-  <si>
-    <t>sitting|high</t>
-  </si>
-  <si>
-    <t>food|place|money.</t>
-  </si>
-  <si>
-    <t>friendly|warm|warm</t>
-  </si>
-  <si>
-    <t>great|good|price|food|wine|reasonable|selecion</t>
-  </si>
-  <si>
-    <t>good|price|everything</t>
-  </si>
-  <si>
-    <t>price|food|would|average</t>
-  </si>
-  <si>
-    <t>great|place</t>
-  </si>
-  <si>
-    <t>good|cheap|food</t>
-  </si>
-  <si>
-    <t>good|atmosphere</t>
-  </si>
-  <si>
-    <t>good|cheap|wine</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>drinks|half</t>
-  </si>
-  <si>
-    <t>toons|redone|space</t>
-  </si>
-  <si>
-    <t>delight</t>
-  </si>
-  <si>
-    <t>great|price|food|reasonable</t>
-  </si>
-  <si>
-    <t>good|edible|price|food</t>
-  </si>
-  <si>
-    <t>jazz</t>
-  </si>
-  <si>
-    <t>great|good|service|price|music|food</t>
-  </si>
-  <si>
-    <t>price|fish</t>
-  </si>
-  <si>
-    <t>restaurant|good|cheap|price|price|friendly|rest|food|village|like</t>
-  </si>
-  <si>
-    <t>restaurant|good|service|price|work|rest|food</t>
-  </si>
-  <si>
-    <t>service|price|though|food</t>
-  </si>
-  <si>
-    <t>price|food|reasonable</t>
-  </si>
-  <si>
-    <t>sushi|$20</t>
-  </si>
-  <si>
-    <t>price|chip|fish|$15....</t>
-  </si>
-  <si>
-    <t>restaurant|rest|warm</t>
-  </si>
-  <si>
-    <t>setting|like</t>
-  </si>
-  <si>
-    <t>good|meal|though|$60</t>
-  </si>
-  <si>
-    <t>away|hidden|place</t>
-  </si>
-  <si>
-    <t>atmosphere|come</t>
-  </si>
-  <si>
-    <t>service|price|food</t>
-  </si>
-  <si>
-    <t>season|charge</t>
-  </si>
-  <si>
-    <t>dinner|feet|$400.00</t>
-  </si>
-  <si>
-    <t>garden|area</t>
-  </si>
-  <si>
-    <t>bland|$11</t>
-  </si>
-  <si>
-    <t>good|food|place</t>
-  </si>
-  <si>
-    <t>high|highly|place|recommend</t>
-  </si>
-  <si>
-    <t>water|table|voss|bottles|water|piece|$8</t>
-  </si>
-  <si>
-    <t>good|price|friendly|people|food</t>
-  </si>
-  <si>
-    <t>high|price|food</t>
-  </si>
-  <si>
-    <t>bathroom|bathroom</t>
-  </si>
-  <si>
-    <t>price|rest|would</t>
-  </si>
-  <si>
-    <t>great|romantic</t>
-  </si>
-  <si>
     <t>belly|dancing|crowd</t>
   </si>
   <si>
@@ -5506,16 +5566,13 @@
     <t>pretty|atmosphere</t>
   </si>
   <si>
-    <t>service|price|dish|average|$10.</t>
-  </si>
-  <si>
-    <t>thing|decor</t>
+    <t>service|price|dish|rice|average|$10!-</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>wine|$500</t>
+    <t>wine|$500!-</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5524,22 +5581,19 @@
     <t>common|place</t>
   </si>
   <si>
-    <t>season|season|restaurant|restaurant|nose|history|trust|charge|rest|rest|sort</t>
+    <t>season|season|restaurant|restaurant|nose|history|trust|charge|city|york|rest|rest|sort</t>
   </si>
   <si>
     <t>high|highly</t>
   </si>
   <si>
-    <t>service|$500.</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>drinks|$14</t>
-  </si>
-  <si>
-    <t>would|$55</t>
+    <t>service|$500!-</t>
+  </si>
+  <si>
+    <t>drinks|$14!-</t>
+  </si>
+  <si>
+    <t>would|$55!-</t>
   </si>
   <si>
     <t>supposed|good|left|empy|food|would</t>
@@ -5548,16 +5602,16 @@
     <t>meal|edible|seemed|would</t>
   </si>
   <si>
-    <t>restaurant|left|rest|money.</t>
+    <t>restaurant|left|rest</t>
   </si>
   <si>
     <t>good|fresh|food</t>
   </si>
   <si>
-    <t>restaurant|instead|price|rest|place|would|$25),</t>
-  </si>
-  <si>
-    <t>food|place|$</t>
+    <t>restaurant|instead|price|rest|place|rice|rice|would|$25!-</t>
+  </si>
+  <si>
+    <t>food|place|$!-</t>
   </si>
   <si>
     <t>lunch|buffet</t>
@@ -5566,28 +5620,31 @@
     <t>place|romantic</t>
   </si>
   <si>
-    <t>stone|bowl|$2</t>
-  </si>
-  <si>
-    <t>restaurant|rest|sushi|romantic</t>
-  </si>
-  <si>
-    <t>sake|wonderful|$29</t>
-  </si>
-  <si>
-    <t>great|good|price|reasonable</t>
-  </si>
-  <si>
-    <t>service|well|$500</t>
-  </si>
-  <si>
-    <t>great|good|fresh|service|meal</t>
-  </si>
-  <si>
-    <t>good|high|price|food|come|would</t>
-  </si>
-  <si>
-    <t>restaurant|bland|taste|fish|rest|$24</t>
+    <t>stone|bowl|$2!-</t>
+  </si>
+  <si>
+    <t>restaurant|city|rest|romantic</t>
+  </si>
+  <si>
+    <t>restaurant|city|rest|sushi|romantic</t>
+  </si>
+  <si>
+    <t>sake|wonderful|$29!-</t>
+  </si>
+  <si>
+    <t>great|good|price|rice|reasonable</t>
+  </si>
+  <si>
+    <t>service|well|$500!-</t>
+  </si>
+  <si>
+    <t>great|good|fresh|service|meal|salad</t>
+  </si>
+  <si>
+    <t>good|high|price|food|rice|come|would</t>
+  </si>
+  <si>
+    <t>restaurant|bland|taste|fish|rest|$24!-</t>
   </si>
   <si>
     <t>come</t>
@@ -5596,10 +5653,13 @@
     <t>list|reasonable|would|listed</t>
   </si>
   <si>
-    <t>service|$60</t>
-  </si>
-  <si>
-    <t>price|place|average</t>
+    <t>service|$60!-</t>
+  </si>
+  <si>
+    <t>price|place|rice|average</t>
+  </si>
+  <si>
+    <t>price|salad|rice</t>
   </si>
   <si>
     <t>negative</t>
@@ -6111,10 +6171,10 @@
         <v>1337</v>
       </c>
       <c r="G2" t="s">
-        <v>1511</v>
+        <v>1525</v>
       </c>
       <c r="H2" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6140,7 +6200,7 @@
         <v>933</v>
       </c>
       <c r="H3" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6163,10 +6223,10 @@
         <v>1338</v>
       </c>
       <c r="G4" t="s">
-        <v>1512</v>
+        <v>1526</v>
       </c>
       <c r="H4" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6189,10 +6249,10 @@
         <v>1285</v>
       </c>
       <c r="G5" t="s">
-        <v>1513</v>
+        <v>1527</v>
       </c>
       <c r="H5" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6215,10 +6275,10 @@
         <v>1339</v>
       </c>
       <c r="G6" t="s">
-        <v>1514</v>
+        <v>1528</v>
       </c>
       <c r="H6" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6238,13 +6298,13 @@
         <v>1276</v>
       </c>
       <c r="F7" t="s">
-        <v>1285</v>
+        <v>1340</v>
       </c>
       <c r="G7" t="s">
-        <v>1515</v>
+        <v>1529</v>
       </c>
       <c r="H7" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6264,13 +6324,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G8" t="s">
-        <v>1516</v>
+        <v>1530</v>
       </c>
       <c r="H8" t="s">
-        <v>1866</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6290,13 +6350,13 @@
         <v>1280</v>
       </c>
       <c r="F9" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G9" t="s">
-        <v>1517</v>
+        <v>1531</v>
       </c>
       <c r="H9" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6316,13 +6376,13 @@
         <v>1281</v>
       </c>
       <c r="F10" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G10" t="s">
-        <v>1518</v>
+        <v>1532</v>
       </c>
       <c r="H10" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6342,13 +6402,13 @@
         <v>1278</v>
       </c>
       <c r="F11" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G11" t="s">
-        <v>1519</v>
+        <v>1533</v>
       </c>
       <c r="H11" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6368,13 +6428,13 @@
         <v>1282</v>
       </c>
       <c r="F12" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G12" t="s">
-        <v>1520</v>
+        <v>1534</v>
       </c>
       <c r="H12" t="s">
-        <v>1866</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6394,13 +6454,13 @@
         <v>1278</v>
       </c>
       <c r="F13" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G13" t="s">
-        <v>1521</v>
+        <v>1535</v>
       </c>
       <c r="H13" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6420,13 +6480,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G14" t="s">
-        <v>1522</v>
+        <v>1536</v>
       </c>
       <c r="H14" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6452,7 +6512,7 @@
         <v>1089</v>
       </c>
       <c r="H15" t="s">
-        <v>1868</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6472,13 +6532,13 @@
         <v>1284</v>
       </c>
       <c r="F16" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G16" t="s">
-        <v>1523</v>
+        <v>1537</v>
       </c>
       <c r="H16" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6498,13 +6558,13 @@
         <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G17" t="s">
-        <v>1524</v>
+        <v>1538</v>
       </c>
       <c r="H17" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6524,13 +6584,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G18" t="s">
-        <v>1525</v>
+        <v>1539</v>
       </c>
       <c r="H18" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6553,7 +6613,7 @@
         <v>933</v>
       </c>
       <c r="H19" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6573,13 +6633,13 @@
         <v>1276</v>
       </c>
       <c r="F20" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G20" t="s">
-        <v>1526</v>
+        <v>1540</v>
       </c>
       <c r="H20" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6605,7 +6665,7 @@
         <v>1120</v>
       </c>
       <c r="H21" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6625,13 +6685,13 @@
         <v>1276</v>
       </c>
       <c r="F22" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G22" t="s">
-        <v>1527</v>
+        <v>1541</v>
       </c>
       <c r="H22" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6654,10 +6714,10 @@
         <v>1285</v>
       </c>
       <c r="G23" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H23" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6680,10 +6740,10 @@
         <v>1351</v>
       </c>
       <c r="G24" t="s">
-        <v>1529</v>
+        <v>1543</v>
       </c>
       <c r="H24" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6709,7 +6769,7 @@
         <v>947</v>
       </c>
       <c r="H25" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6732,10 +6792,10 @@
         <v>1352</v>
       </c>
       <c r="G26" t="s">
-        <v>1530</v>
+        <v>1544</v>
       </c>
       <c r="H26" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6758,10 +6818,10 @@
         <v>1353</v>
       </c>
       <c r="G27" t="s">
-        <v>1531</v>
+        <v>1545</v>
       </c>
       <c r="H27" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6784,10 +6844,10 @@
         <v>1354</v>
       </c>
       <c r="G28" t="s">
-        <v>1532</v>
+        <v>1546</v>
       </c>
       <c r="H28" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6810,10 +6870,10 @@
         <v>1355</v>
       </c>
       <c r="G29" t="s">
-        <v>1533</v>
+        <v>1547</v>
       </c>
       <c r="H29" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6836,10 +6896,10 @@
         <v>1356</v>
       </c>
       <c r="G30" t="s">
-        <v>1534</v>
+        <v>1548</v>
       </c>
       <c r="H30" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6862,10 +6922,10 @@
         <v>1357</v>
       </c>
       <c r="G31" t="s">
-        <v>1535</v>
+        <v>1549</v>
       </c>
       <c r="H31" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6888,10 +6948,10 @@
         <v>1358</v>
       </c>
       <c r="G32" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="H32" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6914,10 +6974,10 @@
         <v>1351</v>
       </c>
       <c r="G33" t="s">
-        <v>1537</v>
+        <v>1551</v>
       </c>
       <c r="H33" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6940,10 +7000,10 @@
         <v>1359</v>
       </c>
       <c r="G34" t="s">
-        <v>1538</v>
+        <v>1552</v>
       </c>
       <c r="H34" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6966,10 +7026,10 @@
         <v>1285</v>
       </c>
       <c r="G35" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H35" t="s">
-        <v>1870</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6989,13 +7049,13 @@
         <v>1276</v>
       </c>
       <c r="F36" t="s">
-        <v>1360</v>
+        <v>1276</v>
       </c>
       <c r="G36" t="s">
-        <v>1539</v>
+        <v>947</v>
       </c>
       <c r="H36" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -7018,10 +7078,10 @@
         <v>1285</v>
       </c>
       <c r="G37" t="s">
-        <v>1513</v>
+        <v>1527</v>
       </c>
       <c r="H37" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -7041,13 +7101,13 @@
         <v>1278</v>
       </c>
       <c r="F38" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G38" t="s">
-        <v>1540</v>
+        <v>1553</v>
       </c>
       <c r="H38" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7067,13 +7127,13 @@
         <v>1285</v>
       </c>
       <c r="F39" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G39" t="s">
-        <v>1541</v>
+        <v>1554</v>
       </c>
       <c r="H39" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -7093,13 +7153,13 @@
         <v>1285</v>
       </c>
       <c r="F40" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G40" t="s">
-        <v>1542</v>
+        <v>1555</v>
       </c>
       <c r="H40" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -7119,13 +7179,13 @@
         <v>1280</v>
       </c>
       <c r="F41" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="G41" t="s">
-        <v>1543</v>
+        <v>1556</v>
       </c>
       <c r="H41" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -7145,13 +7205,13 @@
         <v>1278</v>
       </c>
       <c r="F42" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G42" t="s">
-        <v>1544</v>
+        <v>1557</v>
       </c>
       <c r="H42" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -7171,13 +7231,13 @@
         <v>1285</v>
       </c>
       <c r="F43" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="G43" t="s">
-        <v>1545</v>
+        <v>1558</v>
       </c>
       <c r="H43" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -7197,13 +7257,13 @@
         <v>1285</v>
       </c>
       <c r="F44" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G44" t="s">
-        <v>1546</v>
+        <v>1559</v>
       </c>
       <c r="H44" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -7223,13 +7283,13 @@
         <v>1288</v>
       </c>
       <c r="F45" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G45" t="s">
-        <v>1547</v>
+        <v>1560</v>
       </c>
       <c r="H45" t="s">
-        <v>1871</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7252,10 +7312,10 @@
         <v>1351</v>
       </c>
       <c r="G46" t="s">
-        <v>1548</v>
+        <v>1561</v>
       </c>
       <c r="H46" t="s">
-        <v>1872</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -7275,13 +7335,13 @@
         <v>1277</v>
       </c>
       <c r="F47" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G47" t="s">
-        <v>1549</v>
+        <v>1562</v>
       </c>
       <c r="H47" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -7304,10 +7364,10 @@
         <v>1368</v>
       </c>
       <c r="G48" t="s">
-        <v>1550</v>
+        <v>1563</v>
       </c>
       <c r="H48" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7327,13 +7387,13 @@
         <v>1282</v>
       </c>
       <c r="F49" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G49" t="s">
-        <v>1551</v>
+        <v>1564</v>
       </c>
       <c r="H49" t="s">
-        <v>1873</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7359,7 +7419,7 @@
         <v>1046</v>
       </c>
       <c r="H50" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7382,10 +7442,10 @@
         <v>1369</v>
       </c>
       <c r="G51" t="s">
-        <v>1552</v>
+        <v>1565</v>
       </c>
       <c r="H51" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7408,10 +7468,10 @@
         <v>1370</v>
       </c>
       <c r="G52" t="s">
-        <v>1553</v>
+        <v>1566</v>
       </c>
       <c r="H52" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7434,10 +7494,10 @@
         <v>1285</v>
       </c>
       <c r="G53" t="s">
-        <v>1554</v>
+        <v>1567</v>
       </c>
       <c r="H53" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7460,10 +7520,10 @@
         <v>1278</v>
       </c>
       <c r="G54" t="s">
-        <v>1555</v>
+        <v>1568</v>
       </c>
       <c r="H54" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7483,13 +7543,13 @@
         <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G55" t="s">
-        <v>1556</v>
+        <v>1569</v>
       </c>
       <c r="H55" t="s">
-        <v>1874</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7512,10 +7572,10 @@
         <v>1371</v>
       </c>
       <c r="G56" t="s">
-        <v>1557</v>
+        <v>1570</v>
       </c>
       <c r="H56" t="s">
-        <v>1875</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7538,10 +7598,10 @@
         <v>1372</v>
       </c>
       <c r="G57" t="s">
-        <v>1558</v>
+        <v>1571</v>
       </c>
       <c r="H57" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7564,10 +7624,10 @@
         <v>1373</v>
       </c>
       <c r="G58" t="s">
-        <v>1559</v>
+        <v>1572</v>
       </c>
       <c r="H58" t="s">
-        <v>1876</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7590,10 +7650,10 @@
         <v>1374</v>
       </c>
       <c r="G59" t="s">
-        <v>1560</v>
+        <v>1573</v>
       </c>
       <c r="H59" t="s">
-        <v>1874</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7612,8 +7672,14 @@
       <c r="E60" t="s">
         <v>1276</v>
       </c>
+      <c r="F60" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G60" t="s">
+        <v>983</v>
+      </c>
       <c r="H60" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7633,13 +7699,13 @@
         <v>1278</v>
       </c>
       <c r="F61" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G61" t="s">
-        <v>1561</v>
+        <v>1574</v>
       </c>
       <c r="H61" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7662,10 +7728,10 @@
         <v>1375</v>
       </c>
       <c r="G62" t="s">
-        <v>1562</v>
+        <v>1575</v>
       </c>
       <c r="H62" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7688,10 +7754,10 @@
         <v>1376</v>
       </c>
       <c r="G63" t="s">
-        <v>1563</v>
+        <v>1576</v>
       </c>
       <c r="H63" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7714,10 +7780,10 @@
         <v>1377</v>
       </c>
       <c r="G64" t="s">
-        <v>1564</v>
+        <v>1577</v>
       </c>
       <c r="H64" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7737,13 +7803,13 @@
         <v>1276</v>
       </c>
       <c r="F65" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G65" t="s">
-        <v>1525</v>
+        <v>1539</v>
       </c>
       <c r="H65" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7766,10 +7832,10 @@
         <v>1378</v>
       </c>
       <c r="G66" t="s">
-        <v>1565</v>
+        <v>1578</v>
       </c>
       <c r="H66" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7792,10 +7858,10 @@
         <v>1379</v>
       </c>
       <c r="G67" t="s">
-        <v>1566</v>
+        <v>1579</v>
       </c>
       <c r="H67" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7821,7 +7887,7 @@
         <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7844,10 +7910,10 @@
         <v>1368</v>
       </c>
       <c r="G69" t="s">
-        <v>1567</v>
+        <v>1580</v>
       </c>
       <c r="H69" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7870,10 +7936,10 @@
         <v>1278</v>
       </c>
       <c r="G70" t="s">
-        <v>1568</v>
+        <v>1581</v>
       </c>
       <c r="H70" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7893,13 +7959,13 @@
         <v>1277</v>
       </c>
       <c r="F71" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G71" t="s">
-        <v>1569</v>
+        <v>1582</v>
       </c>
       <c r="H71" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7919,13 +7985,13 @@
         <v>1296</v>
       </c>
       <c r="F72" t="s">
-        <v>1278</v>
+        <v>1380</v>
       </c>
       <c r="G72" t="s">
-        <v>933</v>
+        <v>1583</v>
       </c>
       <c r="H72" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7945,13 +8011,13 @@
         <v>1276</v>
       </c>
       <c r="F73" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G73" t="s">
-        <v>1570</v>
+        <v>1584</v>
       </c>
       <c r="H73" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7971,13 +8037,13 @@
         <v>1284</v>
       </c>
       <c r="F74" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="G74" t="s">
-        <v>1571</v>
+        <v>1585</v>
       </c>
       <c r="H74" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -8003,7 +8069,7 @@
         <v>985</v>
       </c>
       <c r="H75" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -8023,13 +8089,13 @@
         <v>1285</v>
       </c>
       <c r="F76" t="s">
-        <v>1285</v>
+        <v>1383</v>
       </c>
       <c r="G76" t="s">
-        <v>995</v>
+        <v>1586</v>
       </c>
       <c r="H76" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -8049,13 +8115,13 @@
         <v>1278</v>
       </c>
       <c r="F77" t="s">
-        <v>1278</v>
+        <v>1377</v>
       </c>
       <c r="G77" t="s">
-        <v>996</v>
+        <v>1587</v>
       </c>
       <c r="H77" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -8078,10 +8144,10 @@
         <v>1379</v>
       </c>
       <c r="G78" t="s">
-        <v>1572</v>
+        <v>1588</v>
       </c>
       <c r="H78" t="s">
-        <v>1877</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -8101,13 +8167,13 @@
         <v>1278</v>
       </c>
       <c r="F79" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G79" t="s">
-        <v>1573</v>
+        <v>1589</v>
       </c>
       <c r="H79" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -8127,13 +8193,13 @@
         <v>1277</v>
       </c>
       <c r="F80" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G80" t="s">
-        <v>1574</v>
+        <v>1590</v>
       </c>
       <c r="H80" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -8156,10 +8222,10 @@
         <v>1285</v>
       </c>
       <c r="G81" t="s">
-        <v>1554</v>
+        <v>1567</v>
       </c>
       <c r="H81" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -8179,13 +8245,13 @@
         <v>1297</v>
       </c>
       <c r="F82" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="G82" t="s">
-        <v>1575</v>
+        <v>1591</v>
       </c>
       <c r="H82" t="s">
-        <v>1876</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -8211,7 +8277,7 @@
         <v>933</v>
       </c>
       <c r="H83" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -8231,13 +8297,13 @@
         <v>1278</v>
       </c>
       <c r="F84" t="s">
-        <v>1384</v>
+        <v>1340</v>
       </c>
       <c r="G84" t="s">
-        <v>1576</v>
+        <v>1592</v>
       </c>
       <c r="H84" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -8257,13 +8323,13 @@
         <v>1282</v>
       </c>
       <c r="F85" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G85" t="s">
-        <v>1577</v>
+        <v>1593</v>
       </c>
       <c r="H85" t="s">
-        <v>1878</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -8286,10 +8352,10 @@
         <v>1278</v>
       </c>
       <c r="G86" t="s">
-        <v>1578</v>
+        <v>1594</v>
       </c>
       <c r="H86" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8312,10 +8378,10 @@
         <v>1379</v>
       </c>
       <c r="G87" t="s">
-        <v>1579</v>
+        <v>1595</v>
       </c>
       <c r="H87" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8335,13 +8401,13 @@
         <v>1284</v>
       </c>
       <c r="F88" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G88" t="s">
-        <v>1580</v>
+        <v>1596</v>
       </c>
       <c r="H88" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8364,10 +8430,10 @@
         <v>1285</v>
       </c>
       <c r="G89" t="s">
-        <v>1554</v>
+        <v>1567</v>
       </c>
       <c r="H89" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8387,13 +8453,13 @@
         <v>1298</v>
       </c>
       <c r="F90" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="G90" t="s">
-        <v>1581</v>
+        <v>1597</v>
       </c>
       <c r="H90" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8413,13 +8479,13 @@
         <v>1286</v>
       </c>
       <c r="F91" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G91" t="s">
-        <v>1582</v>
+        <v>1598</v>
       </c>
       <c r="H91" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8439,13 +8505,13 @@
         <v>1299</v>
       </c>
       <c r="F92" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G92" t="s">
-        <v>1583</v>
+        <v>1599</v>
       </c>
       <c r="H92" t="s">
-        <v>1879</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8465,13 +8531,13 @@
         <v>1277</v>
       </c>
       <c r="F93" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G93" t="s">
-        <v>1584</v>
+        <v>1600</v>
       </c>
       <c r="H93" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8494,10 +8560,10 @@
         <v>1377</v>
       </c>
       <c r="G94" t="s">
-        <v>1585</v>
+        <v>1601</v>
       </c>
       <c r="H94" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8517,13 +8583,13 @@
         <v>1300</v>
       </c>
       <c r="F95" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="G95" t="s">
-        <v>1586</v>
+        <v>1602</v>
       </c>
       <c r="H95" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8543,13 +8609,13 @@
         <v>1278</v>
       </c>
       <c r="F96" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G96" t="s">
-        <v>1587</v>
+        <v>1603</v>
       </c>
       <c r="H96" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8568,8 +8634,14 @@
       <c r="E97" t="s">
         <v>1277</v>
       </c>
+      <c r="F97" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1604</v>
+      </c>
       <c r="H97" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8592,10 +8664,10 @@
         <v>1285</v>
       </c>
       <c r="G98" t="s">
-        <v>1588</v>
+        <v>1605</v>
       </c>
       <c r="H98" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8615,13 +8687,13 @@
         <v>1279</v>
       </c>
       <c r="F99" t="s">
-        <v>1373</v>
+        <v>1355</v>
       </c>
       <c r="G99" t="s">
-        <v>1589</v>
+        <v>1606</v>
       </c>
       <c r="H99" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8641,13 +8713,13 @@
         <v>1279</v>
       </c>
       <c r="F100" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G100" t="s">
-        <v>1590</v>
+        <v>1607</v>
       </c>
       <c r="H100" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8670,10 +8742,10 @@
         <v>1278</v>
       </c>
       <c r="G101" t="s">
-        <v>1591</v>
+        <v>1608</v>
       </c>
       <c r="H101" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8696,10 +8768,10 @@
         <v>1379</v>
       </c>
       <c r="G102" t="s">
-        <v>1592</v>
+        <v>1609</v>
       </c>
       <c r="H102" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8719,13 +8791,13 @@
         <v>1285</v>
       </c>
       <c r="F103" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G103" t="s">
-        <v>1593</v>
+        <v>1610</v>
       </c>
       <c r="H103" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8745,13 +8817,13 @@
         <v>1277</v>
       </c>
       <c r="F104" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G104" t="s">
-        <v>1594</v>
+        <v>1611</v>
       </c>
       <c r="H104" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8777,7 +8849,7 @@
         <v>931</v>
       </c>
       <c r="H105" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8797,13 +8869,13 @@
         <v>1286</v>
       </c>
       <c r="F106" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G106" t="s">
-        <v>1595</v>
+        <v>1612</v>
       </c>
       <c r="H106" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8823,13 +8895,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1365</v>
+        <v>1395</v>
       </c>
       <c r="G107" t="s">
-        <v>1596</v>
+        <v>1613</v>
       </c>
       <c r="H107" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8849,13 +8921,13 @@
         <v>1296</v>
       </c>
       <c r="F108" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="G108" t="s">
-        <v>1597</v>
+        <v>1614</v>
       </c>
       <c r="H108" t="s">
-        <v>1880</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8875,10 +8947,10 @@
         <v>1298</v>
       </c>
       <c r="G109" t="s">
-        <v>1591</v>
+        <v>1608</v>
       </c>
       <c r="H109" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8901,10 +8973,10 @@
         <v>1285</v>
       </c>
       <c r="G110" t="s">
-        <v>1598</v>
+        <v>1615</v>
       </c>
       <c r="H110" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8924,13 +8996,13 @@
         <v>1278</v>
       </c>
       <c r="F111" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G111" t="s">
-        <v>1599</v>
+        <v>1616</v>
       </c>
       <c r="H111" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8950,13 +9022,13 @@
         <v>1277</v>
       </c>
       <c r="F112" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="G112" t="s">
-        <v>1600</v>
+        <v>1617</v>
       </c>
       <c r="H112" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8976,13 +9048,13 @@
         <v>1285</v>
       </c>
       <c r="F113" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="G113" t="s">
-        <v>1601</v>
+        <v>1618</v>
       </c>
       <c r="H113" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -9008,7 +9080,7 @@
         <v>947</v>
       </c>
       <c r="H114" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -9028,13 +9100,13 @@
         <v>1296</v>
       </c>
       <c r="F115" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="G115" t="s">
-        <v>1602</v>
+        <v>1619</v>
       </c>
       <c r="H115" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -9054,13 +9126,13 @@
         <v>1277</v>
       </c>
       <c r="F116" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="G116" t="s">
-        <v>1603</v>
+        <v>1620</v>
       </c>
       <c r="H116" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -9080,13 +9152,13 @@
         <v>1278</v>
       </c>
       <c r="F117" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G117" t="s">
-        <v>1604</v>
+        <v>1621</v>
       </c>
       <c r="H117" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -9106,13 +9178,13 @@
         <v>1296</v>
       </c>
       <c r="F118" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="G118" t="s">
-        <v>1605</v>
+        <v>1622</v>
       </c>
       <c r="H118" t="s">
-        <v>1877</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -9132,13 +9204,13 @@
         <v>1278</v>
       </c>
       <c r="F119" t="s">
-        <v>1392</v>
+        <v>1352</v>
       </c>
       <c r="G119" t="s">
-        <v>1606</v>
+        <v>1623</v>
       </c>
       <c r="H119" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -9158,13 +9230,13 @@
         <v>1278</v>
       </c>
       <c r="F120" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G120" t="s">
-        <v>1546</v>
+        <v>1559</v>
       </c>
       <c r="H120" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -9184,13 +9256,13 @@
         <v>1301</v>
       </c>
       <c r="F121" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G121" t="s">
-        <v>1607</v>
+        <v>1624</v>
       </c>
       <c r="H121" t="s">
-        <v>1874</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -9210,13 +9282,13 @@
         <v>1276</v>
       </c>
       <c r="F122" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G122" t="s">
-        <v>1608</v>
+        <v>1625</v>
       </c>
       <c r="H122" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -9242,7 +9314,7 @@
         <v>933</v>
       </c>
       <c r="H123" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -9262,13 +9334,13 @@
         <v>1278</v>
       </c>
       <c r="F124" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="G124" t="s">
-        <v>1609</v>
+        <v>1626</v>
       </c>
       <c r="H124" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9288,13 +9360,13 @@
         <v>1278</v>
       </c>
       <c r="F125" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="G125" t="s">
-        <v>1610</v>
+        <v>1627</v>
       </c>
       <c r="H125" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9317,10 +9389,10 @@
         <v>1351</v>
       </c>
       <c r="G126" t="s">
-        <v>1611</v>
+        <v>1628</v>
       </c>
       <c r="H126" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9340,13 +9412,13 @@
         <v>1277</v>
       </c>
       <c r="F127" t="s">
-        <v>1340</v>
+        <v>1404</v>
       </c>
       <c r="G127" t="s">
-        <v>1612</v>
+        <v>1629</v>
       </c>
       <c r="H127" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9366,13 +9438,13 @@
         <v>1276</v>
       </c>
       <c r="F128" t="s">
-        <v>1402</v>
+        <v>1380</v>
       </c>
       <c r="G128" t="s">
-        <v>1613</v>
+        <v>1630</v>
       </c>
       <c r="H128" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9392,13 +9464,13 @@
         <v>1277</v>
       </c>
       <c r="F129" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="G129" t="s">
-        <v>1614</v>
+        <v>1631</v>
       </c>
       <c r="H129" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9418,13 +9490,13 @@
         <v>1277</v>
       </c>
       <c r="F130" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="G130" t="s">
-        <v>1615</v>
+        <v>1632</v>
       </c>
       <c r="H130" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9444,13 +9516,13 @@
         <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G131" t="s">
-        <v>1616</v>
+        <v>1633</v>
       </c>
       <c r="H131" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9470,13 +9542,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="G132" t="s">
-        <v>1617</v>
+        <v>1634</v>
       </c>
       <c r="H132" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9496,13 +9568,13 @@
         <v>1277</v>
       </c>
       <c r="F133" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="G133" t="s">
-        <v>1618</v>
+        <v>1635</v>
       </c>
       <c r="H133" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9525,10 +9597,10 @@
         <v>1285</v>
       </c>
       <c r="G134" t="s">
-        <v>1554</v>
+        <v>1567</v>
       </c>
       <c r="H134" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9548,13 +9620,13 @@
         <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="G135" t="s">
-        <v>1619</v>
+        <v>1636</v>
       </c>
       <c r="H135" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9580,7 +9652,7 @@
         <v>1046</v>
       </c>
       <c r="H136" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9603,10 +9675,10 @@
         <v>1352</v>
       </c>
       <c r="G137" t="s">
-        <v>1620</v>
+        <v>1637</v>
       </c>
       <c r="H137" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9626,13 +9698,13 @@
         <v>1276</v>
       </c>
       <c r="F138" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G138" t="s">
-        <v>1621</v>
+        <v>1638</v>
       </c>
       <c r="H138" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9652,13 +9724,13 @@
         <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="G139" t="s">
-        <v>1622</v>
+        <v>1639</v>
       </c>
       <c r="H139" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9678,13 +9750,13 @@
         <v>1282</v>
       </c>
       <c r="F140" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="G140" t="s">
-        <v>1623</v>
+        <v>1640</v>
       </c>
       <c r="H140" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9710,7 +9782,7 @@
         <v>1050</v>
       </c>
       <c r="H141" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9733,10 +9805,10 @@
         <v>1276</v>
       </c>
       <c r="G142" t="s">
-        <v>1624</v>
+        <v>1641</v>
       </c>
       <c r="H142" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9756,13 +9828,13 @@
         <v>1284</v>
       </c>
       <c r="F143" t="s">
-        <v>1365</v>
+        <v>1411</v>
       </c>
       <c r="G143" t="s">
-        <v>1625</v>
+        <v>1642</v>
       </c>
       <c r="H143" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9782,13 +9854,13 @@
         <v>1277</v>
       </c>
       <c r="F144" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="G144" t="s">
-        <v>1626</v>
+        <v>1643</v>
       </c>
       <c r="H144" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9808,13 +9880,13 @@
         <v>1282</v>
       </c>
       <c r="F145" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="G145" t="s">
-        <v>1627</v>
+        <v>1644</v>
       </c>
       <c r="H145" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9834,13 +9906,13 @@
         <v>1302</v>
       </c>
       <c r="F146" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="G146" t="s">
-        <v>1628</v>
+        <v>1645</v>
       </c>
       <c r="H146" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9866,7 +9938,7 @@
         <v>931</v>
       </c>
       <c r="H147" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9889,10 +9961,10 @@
         <v>1278</v>
       </c>
       <c r="G148" t="s">
-        <v>1629</v>
+        <v>1646</v>
       </c>
       <c r="H148" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9915,10 +9987,10 @@
         <v>1278</v>
       </c>
       <c r="G149" t="s">
-        <v>1630</v>
+        <v>1647</v>
       </c>
       <c r="H149" t="s">
-        <v>1881</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9938,13 +10010,13 @@
         <v>1276</v>
       </c>
       <c r="F150" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="G150" t="s">
-        <v>1631</v>
+        <v>1648</v>
       </c>
       <c r="H150" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9964,13 +10036,13 @@
         <v>1303</v>
       </c>
       <c r="F151" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="G151" t="s">
-        <v>1632</v>
+        <v>1649</v>
       </c>
       <c r="H151" t="s">
-        <v>1882</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9990,13 +10062,13 @@
         <v>1277</v>
       </c>
       <c r="F152" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="G152" t="s">
-        <v>1633</v>
+        <v>1650</v>
       </c>
       <c r="H152" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -10016,13 +10088,13 @@
         <v>1304</v>
       </c>
       <c r="F153" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="G153" t="s">
-        <v>1634</v>
+        <v>1651</v>
       </c>
       <c r="H153" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -10042,13 +10114,13 @@
         <v>1278</v>
       </c>
       <c r="F154" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="G154" t="s">
-        <v>1635</v>
+        <v>1652</v>
       </c>
       <c r="H154" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -10068,13 +10140,13 @@
         <v>1278</v>
       </c>
       <c r="F155" t="s">
-        <v>1278</v>
+        <v>1346</v>
       </c>
       <c r="G155" t="s">
-        <v>1636</v>
+        <v>1653</v>
       </c>
       <c r="H155" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -10094,13 +10166,13 @@
         <v>1278</v>
       </c>
       <c r="F156" t="s">
-        <v>1392</v>
+        <v>1352</v>
       </c>
       <c r="G156" t="s">
-        <v>1637</v>
+        <v>1654</v>
       </c>
       <c r="H156" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -10120,13 +10192,13 @@
         <v>1278</v>
       </c>
       <c r="F157" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G157" t="s">
-        <v>1638</v>
+        <v>1655</v>
       </c>
       <c r="H157" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -10146,13 +10218,13 @@
         <v>1285</v>
       </c>
       <c r="F158" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="G158" t="s">
-        <v>1639</v>
+        <v>1656</v>
       </c>
       <c r="H158" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -10172,13 +10244,13 @@
         <v>1285</v>
       </c>
       <c r="F159" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="G159" t="s">
-        <v>1640</v>
+        <v>1657</v>
       </c>
       <c r="H159" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -10198,13 +10270,13 @@
         <v>1285</v>
       </c>
       <c r="F160" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="G160" t="s">
-        <v>1641</v>
+        <v>1658</v>
       </c>
       <c r="H160" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10223,8 +10295,14 @@
       <c r="E161" t="s">
         <v>1278</v>
       </c>
+      <c r="F161" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1032</v>
+      </c>
       <c r="H161" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -10244,13 +10322,13 @@
         <v>1278</v>
       </c>
       <c r="F162" t="s">
-        <v>1376</v>
+        <v>1422</v>
       </c>
       <c r="G162" t="s">
-        <v>1642</v>
+        <v>1659</v>
       </c>
       <c r="H162" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -10276,7 +10354,7 @@
         <v>976</v>
       </c>
       <c r="H163" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10296,13 +10374,13 @@
         <v>1279</v>
       </c>
       <c r="F164" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G164" t="s">
-        <v>1643</v>
+        <v>1660</v>
       </c>
       <c r="H164" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10322,13 +10400,13 @@
         <v>1286</v>
       </c>
       <c r="F165" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="G165" t="s">
-        <v>1644</v>
+        <v>1661</v>
       </c>
       <c r="H165" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10348,13 +10426,13 @@
         <v>1278</v>
       </c>
       <c r="F166" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G166" t="s">
-        <v>1645</v>
+        <v>1662</v>
       </c>
       <c r="H166" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10374,13 +10452,13 @@
         <v>1279</v>
       </c>
       <c r="F167" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="G167" t="s">
-        <v>1646</v>
+        <v>1663</v>
       </c>
       <c r="H167" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10400,13 +10478,13 @@
         <v>1305</v>
       </c>
       <c r="F168" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="G168" t="s">
-        <v>1647</v>
+        <v>1664</v>
       </c>
       <c r="H168" t="s">
-        <v>1874</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10432,7 +10510,7 @@
         <v>1065</v>
       </c>
       <c r="H169" t="s">
-        <v>1877</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10452,13 +10530,13 @@
         <v>1306</v>
       </c>
       <c r="F170" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="G170" t="s">
-        <v>1648</v>
+        <v>1665</v>
       </c>
       <c r="H170" t="s">
-        <v>1874</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10478,13 +10556,13 @@
         <v>1276</v>
       </c>
       <c r="F171" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="G171" t="s">
-        <v>1649</v>
+        <v>1666</v>
       </c>
       <c r="H171" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10504,13 +10582,13 @@
         <v>1277</v>
       </c>
       <c r="F172" t="s">
-        <v>1392</v>
+        <v>1352</v>
       </c>
       <c r="G172" t="s">
-        <v>1650</v>
+        <v>1667</v>
       </c>
       <c r="H172" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10530,13 +10608,13 @@
         <v>1296</v>
       </c>
       <c r="F173" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="G173" t="s">
-        <v>1651</v>
+        <v>1668</v>
       </c>
       <c r="H173" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10559,10 +10637,10 @@
         <v>1278</v>
       </c>
       <c r="G174" t="s">
-        <v>1652</v>
+        <v>1669</v>
       </c>
       <c r="H174" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10585,10 +10663,10 @@
         <v>1359</v>
       </c>
       <c r="G175" t="s">
-        <v>1653</v>
+        <v>1670</v>
       </c>
       <c r="H175" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10608,13 +10686,13 @@
         <v>1276</v>
       </c>
       <c r="F176" t="s">
-        <v>1276</v>
+        <v>1429</v>
       </c>
       <c r="G176" t="s">
-        <v>1654</v>
+        <v>1671</v>
       </c>
       <c r="H176" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10634,13 +10712,13 @@
         <v>1284</v>
       </c>
       <c r="F177" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="G177" t="s">
-        <v>1655</v>
+        <v>1672</v>
       </c>
       <c r="H177" t="s">
-        <v>1872</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10660,13 +10738,13 @@
         <v>1308</v>
       </c>
       <c r="F178" t="s">
-        <v>1426</v>
+        <v>1431</v>
       </c>
       <c r="G178" t="s">
-        <v>1656</v>
+        <v>1673</v>
       </c>
       <c r="H178" t="s">
-        <v>1883</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10686,13 +10764,13 @@
         <v>1309</v>
       </c>
       <c r="F179" t="s">
-        <v>1427</v>
+        <v>1432</v>
       </c>
       <c r="G179" t="s">
-        <v>1657</v>
+        <v>1674</v>
       </c>
       <c r="H179" t="s">
-        <v>1874</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10715,10 +10793,10 @@
         <v>1359</v>
       </c>
       <c r="G180" t="s">
-        <v>1658</v>
+        <v>1675</v>
       </c>
       <c r="H180" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10741,10 +10819,10 @@
         <v>1359</v>
       </c>
       <c r="G181" t="s">
-        <v>1659</v>
+        <v>1676</v>
       </c>
       <c r="H181" t="s">
-        <v>1877</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10764,13 +10842,13 @@
         <v>1278</v>
       </c>
       <c r="F182" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G182" t="s">
-        <v>1660</v>
+        <v>1677</v>
       </c>
       <c r="H182" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10790,13 +10868,13 @@
         <v>1278</v>
       </c>
       <c r="F183" t="s">
-        <v>1428</v>
+        <v>1433</v>
       </c>
       <c r="G183" t="s">
-        <v>1661</v>
+        <v>1678</v>
       </c>
       <c r="H183" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10816,13 +10894,13 @@
         <v>1278</v>
       </c>
       <c r="F184" t="s">
-        <v>1278</v>
+        <v>1346</v>
       </c>
       <c r="G184" t="s">
-        <v>1662</v>
+        <v>1679</v>
       </c>
       <c r="H184" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10842,13 +10920,13 @@
         <v>1310</v>
       </c>
       <c r="F185" t="s">
-        <v>1342</v>
+        <v>1434</v>
       </c>
       <c r="G185" t="s">
-        <v>1663</v>
+        <v>1680</v>
       </c>
       <c r="H185" t="s">
-        <v>1877</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10874,7 +10952,7 @@
         <v>1089</v>
       </c>
       <c r="H186" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10894,13 +10972,13 @@
         <v>1278</v>
       </c>
       <c r="F187" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G187" t="s">
-        <v>1664</v>
+        <v>1681</v>
       </c>
       <c r="H187" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10920,13 +10998,13 @@
         <v>1277</v>
       </c>
       <c r="F188" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G188" t="s">
-        <v>1665</v>
+        <v>1682</v>
       </c>
       <c r="H188" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10946,13 +11024,13 @@
         <v>1300</v>
       </c>
       <c r="F189" t="s">
-        <v>1429</v>
+        <v>1435</v>
       </c>
       <c r="G189" t="s">
-        <v>1666</v>
+        <v>1683</v>
       </c>
       <c r="H189" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10975,10 +11053,10 @@
         <v>1379</v>
       </c>
       <c r="G190" t="s">
-        <v>1667</v>
+        <v>1684</v>
       </c>
       <c r="H190" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10998,13 +11076,13 @@
         <v>1277</v>
       </c>
       <c r="F191" t="s">
-        <v>1430</v>
+        <v>1436</v>
       </c>
       <c r="G191" t="s">
-        <v>1668</v>
+        <v>1685</v>
       </c>
       <c r="H191" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -11024,13 +11102,13 @@
         <v>1311</v>
       </c>
       <c r="F192" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G192" t="s">
-        <v>1669</v>
+        <v>1686</v>
       </c>
       <c r="H192" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -11050,13 +11128,13 @@
         <v>1284</v>
       </c>
       <c r="F193" t="s">
-        <v>1425</v>
+        <v>1437</v>
       </c>
       <c r="G193" t="s">
-        <v>1670</v>
+        <v>1687</v>
       </c>
       <c r="H193" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -11079,10 +11157,10 @@
         <v>1278</v>
       </c>
       <c r="G194" t="s">
-        <v>1671</v>
+        <v>1688</v>
       </c>
       <c r="H194" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -11102,13 +11180,13 @@
         <v>1285</v>
       </c>
       <c r="F195" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G195" t="s">
-        <v>1546</v>
+        <v>1559</v>
       </c>
       <c r="H195" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -11131,10 +11209,10 @@
         <v>1337</v>
       </c>
       <c r="G196" t="s">
-        <v>1672</v>
+        <v>1689</v>
       </c>
       <c r="H196" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -11160,7 +11238,7 @@
         <v>996</v>
       </c>
       <c r="H197" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -11180,7 +11258,7 @@
         <v>1297</v>
       </c>
       <c r="H198" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -11200,13 +11278,13 @@
         <v>1278</v>
       </c>
       <c r="F199" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G199" t="s">
-        <v>1673</v>
+        <v>1690</v>
       </c>
       <c r="H199" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -11229,10 +11307,10 @@
         <v>1359</v>
       </c>
       <c r="G200" t="s">
-        <v>1674</v>
+        <v>1691</v>
       </c>
       <c r="H200" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -11255,10 +11333,10 @@
         <v>1379</v>
       </c>
       <c r="G201" t="s">
-        <v>1675</v>
+        <v>1692</v>
       </c>
       <c r="H201" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11278,13 +11356,13 @@
         <v>1309</v>
       </c>
       <c r="F202" t="s">
-        <v>1431</v>
+        <v>1438</v>
       </c>
       <c r="G202" t="s">
-        <v>1676</v>
+        <v>1693</v>
       </c>
       <c r="H202" t="s">
-        <v>1874</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11304,13 +11382,13 @@
         <v>1285</v>
       </c>
       <c r="F203" t="s">
-        <v>1384</v>
+        <v>1439</v>
       </c>
       <c r="G203" t="s">
-        <v>1677</v>
+        <v>1694</v>
       </c>
       <c r="H203" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11330,13 +11408,13 @@
         <v>1312</v>
       </c>
       <c r="F204" t="s">
-        <v>1432</v>
+        <v>1440</v>
       </c>
       <c r="G204" t="s">
-        <v>1678</v>
+        <v>1695</v>
       </c>
       <c r="H204" t="s">
-        <v>1880</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11356,13 +11434,13 @@
         <v>1279</v>
       </c>
       <c r="F205" t="s">
-        <v>1433</v>
+        <v>1441</v>
       </c>
       <c r="G205" t="s">
-        <v>1679</v>
+        <v>1696</v>
       </c>
       <c r="H205" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11382,13 +11460,13 @@
         <v>1276</v>
       </c>
       <c r="F206" t="s">
-        <v>1434</v>
+        <v>1442</v>
       </c>
       <c r="G206" t="s">
-        <v>1680</v>
+        <v>1697</v>
       </c>
       <c r="H206" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11408,13 +11486,13 @@
         <v>1276</v>
       </c>
       <c r="F207" t="s">
-        <v>1435</v>
+        <v>1443</v>
       </c>
       <c r="G207" t="s">
-        <v>1681</v>
+        <v>1698</v>
       </c>
       <c r="H207" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11434,13 +11512,13 @@
         <v>1278</v>
       </c>
       <c r="F208" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="G208" t="s">
-        <v>1682</v>
+        <v>1699</v>
       </c>
       <c r="H208" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11460,13 +11538,13 @@
         <v>1277</v>
       </c>
       <c r="F209" t="s">
-        <v>1436</v>
+        <v>1444</v>
       </c>
       <c r="G209" t="s">
-        <v>1683</v>
+        <v>1700</v>
       </c>
       <c r="H209" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11489,10 +11567,10 @@
         <v>1278</v>
       </c>
       <c r="G210" t="s">
-        <v>1684</v>
+        <v>1701</v>
       </c>
       <c r="H210" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11515,10 +11593,10 @@
         <v>1376</v>
       </c>
       <c r="G211" t="s">
-        <v>1685</v>
+        <v>1702</v>
       </c>
       <c r="H211" t="s">
-        <v>1884</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11538,13 +11616,13 @@
         <v>1278</v>
       </c>
       <c r="F212" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
       <c r="G212" t="s">
-        <v>1686</v>
+        <v>1703</v>
       </c>
       <c r="H212" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11567,10 +11645,10 @@
         <v>1285</v>
       </c>
       <c r="G213" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H213" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11590,13 +11668,13 @@
         <v>1296</v>
       </c>
       <c r="F214" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="G214" t="s">
-        <v>1687</v>
+        <v>1704</v>
       </c>
       <c r="H214" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11619,10 +11697,10 @@
         <v>1278</v>
       </c>
       <c r="G215" t="s">
-        <v>1688</v>
+        <v>1705</v>
       </c>
       <c r="H215" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11642,13 +11720,13 @@
         <v>1278</v>
       </c>
       <c r="F216" t="s">
-        <v>1438</v>
+        <v>1446</v>
       </c>
       <c r="G216" t="s">
-        <v>1689</v>
+        <v>1706</v>
       </c>
       <c r="H216" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11668,13 +11746,13 @@
         <v>1311</v>
       </c>
       <c r="F217" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G217" t="s">
-        <v>1690</v>
+        <v>1707</v>
       </c>
       <c r="H217" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11694,13 +11772,13 @@
         <v>1281</v>
       </c>
       <c r="F218" t="s">
-        <v>1439</v>
+        <v>1447</v>
       </c>
       <c r="G218" t="s">
-        <v>1691</v>
+        <v>1708</v>
       </c>
       <c r="H218" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11720,13 +11798,13 @@
         <v>1285</v>
       </c>
       <c r="F219" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G219" t="s">
-        <v>1692</v>
+        <v>1709</v>
       </c>
       <c r="H219" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11746,13 +11824,13 @@
         <v>1310</v>
       </c>
       <c r="F220" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G220" t="s">
-        <v>1693</v>
+        <v>1710</v>
       </c>
       <c r="H220" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11772,13 +11850,13 @@
         <v>1313</v>
       </c>
       <c r="F221" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G221" t="s">
-        <v>1694</v>
+        <v>1711</v>
       </c>
       <c r="H221" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11804,7 +11882,7 @@
         <v>947</v>
       </c>
       <c r="H222" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11824,13 +11902,13 @@
         <v>1311</v>
       </c>
       <c r="F223" t="s">
-        <v>1440</v>
+        <v>1448</v>
       </c>
       <c r="G223" t="s">
-        <v>1695</v>
+        <v>1712</v>
       </c>
       <c r="H223" t="s">
-        <v>1885</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11850,13 +11928,13 @@
         <v>1314</v>
       </c>
       <c r="F224" t="s">
-        <v>1441</v>
+        <v>1449</v>
       </c>
       <c r="G224" t="s">
-        <v>1696</v>
+        <v>1713</v>
       </c>
       <c r="H224" t="s">
-        <v>1886</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11879,10 +11957,10 @@
         <v>1376</v>
       </c>
       <c r="G225" t="s">
-        <v>1697</v>
+        <v>1714</v>
       </c>
       <c r="H225" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11902,7 +11980,7 @@
         <v>1276</v>
       </c>
       <c r="H226" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11928,7 +12006,7 @@
         <v>1089</v>
       </c>
       <c r="H227" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11948,13 +12026,13 @@
         <v>1285</v>
       </c>
       <c r="F228" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G228" t="s">
-        <v>1698</v>
+        <v>1715</v>
       </c>
       <c r="H228" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11974,13 +12052,13 @@
         <v>1276</v>
       </c>
       <c r="F229" t="s">
-        <v>1442</v>
+        <v>1450</v>
       </c>
       <c r="G229" t="s">
-        <v>1699</v>
+        <v>1716</v>
       </c>
       <c r="H229" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -12000,13 +12078,13 @@
         <v>1294</v>
       </c>
       <c r="F230" t="s">
-        <v>1294</v>
+        <v>1451</v>
       </c>
       <c r="G230" t="s">
-        <v>1700</v>
+        <v>1717</v>
       </c>
       <c r="H230" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -12032,7 +12110,7 @@
         <v>947</v>
       </c>
       <c r="H231" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -12055,10 +12133,10 @@
         <v>1294</v>
       </c>
       <c r="G232" t="s">
-        <v>1701</v>
+        <v>1718</v>
       </c>
       <c r="H232" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -12081,10 +12159,10 @@
         <v>1355</v>
       </c>
       <c r="G233" t="s">
-        <v>1702</v>
+        <v>1719</v>
       </c>
       <c r="H233" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -12107,10 +12185,10 @@
         <v>1376</v>
       </c>
       <c r="G234" t="s">
-        <v>1703</v>
+        <v>1720</v>
       </c>
       <c r="H234" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -12130,13 +12208,13 @@
         <v>1300</v>
       </c>
       <c r="F235" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G235" t="s">
-        <v>1669</v>
+        <v>1686</v>
       </c>
       <c r="H235" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -12156,13 +12234,13 @@
         <v>1285</v>
       </c>
       <c r="F236" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G236" t="s">
-        <v>1704</v>
+        <v>1721</v>
       </c>
       <c r="H236" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -12185,10 +12263,10 @@
         <v>1294</v>
       </c>
       <c r="G237" t="s">
-        <v>1705</v>
+        <v>1722</v>
       </c>
       <c r="H237" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -12208,13 +12286,13 @@
         <v>1316</v>
       </c>
       <c r="F238" t="s">
-        <v>1443</v>
+        <v>1452</v>
       </c>
       <c r="G238" t="s">
-        <v>1706</v>
+        <v>1723</v>
       </c>
       <c r="H238" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -12234,13 +12312,13 @@
         <v>1285</v>
       </c>
       <c r="F239" t="s">
-        <v>1425</v>
+        <v>1437</v>
       </c>
       <c r="G239" t="s">
-        <v>1707</v>
+        <v>1724</v>
       </c>
       <c r="H239" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -12260,13 +12338,13 @@
         <v>1317</v>
       </c>
       <c r="F240" t="s">
-        <v>1444</v>
+        <v>1453</v>
       </c>
       <c r="G240" t="s">
-        <v>1708</v>
+        <v>1725</v>
       </c>
       <c r="H240" t="s">
-        <v>1874</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12289,10 +12367,10 @@
         <v>1379</v>
       </c>
       <c r="G241" t="s">
-        <v>1709</v>
+        <v>1726</v>
       </c>
       <c r="H241" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12312,13 +12390,13 @@
         <v>1318</v>
       </c>
       <c r="F242" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G242" t="s">
-        <v>1580</v>
+        <v>1596</v>
       </c>
       <c r="H242" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12338,13 +12416,13 @@
         <v>1276</v>
       </c>
       <c r="F243" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G243" t="s">
-        <v>1526</v>
+        <v>1540</v>
       </c>
       <c r="H243" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12367,10 +12445,10 @@
         <v>1285</v>
       </c>
       <c r="G244" t="s">
-        <v>1554</v>
+        <v>1567</v>
       </c>
       <c r="H244" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12390,13 +12468,13 @@
         <v>1276</v>
       </c>
       <c r="F245" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G245" t="s">
-        <v>1710</v>
+        <v>1727</v>
       </c>
       <c r="H245" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12422,7 +12500,7 @@
         <v>931</v>
       </c>
       <c r="H246" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12442,13 +12520,13 @@
         <v>1310</v>
       </c>
       <c r="F247" t="s">
-        <v>1368</v>
+        <v>1454</v>
       </c>
       <c r="G247" t="s">
-        <v>1711</v>
+        <v>1728</v>
       </c>
       <c r="H247" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12468,13 +12546,13 @@
         <v>1276</v>
       </c>
       <c r="F248" t="s">
-        <v>1402</v>
+        <v>1455</v>
       </c>
       <c r="G248" t="s">
-        <v>1712</v>
+        <v>1729</v>
       </c>
       <c r="H248" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12494,13 +12572,13 @@
         <v>1305</v>
       </c>
       <c r="F249" t="s">
-        <v>1445</v>
+        <v>1456</v>
       </c>
       <c r="G249" t="s">
-        <v>1713</v>
+        <v>1730</v>
       </c>
       <c r="H249" t="s">
-        <v>1868</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12520,13 +12598,13 @@
         <v>1279</v>
       </c>
       <c r="F250" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G250" t="s">
-        <v>1714</v>
+        <v>1731</v>
       </c>
       <c r="H250" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12546,13 +12624,13 @@
         <v>1300</v>
       </c>
       <c r="F251" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G251" t="s">
-        <v>1715</v>
+        <v>1732</v>
       </c>
       <c r="H251" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12575,10 +12653,10 @@
         <v>1278</v>
       </c>
       <c r="G252" t="s">
-        <v>1716</v>
+        <v>1733</v>
       </c>
       <c r="H252" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12604,7 +12682,7 @@
         <v>947</v>
       </c>
       <c r="H253" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12630,7 +12708,7 @@
         <v>947</v>
       </c>
       <c r="H254" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12650,13 +12728,13 @@
         <v>1276</v>
       </c>
       <c r="F255" t="s">
-        <v>1446</v>
+        <v>1457</v>
       </c>
       <c r="G255" t="s">
-        <v>1717</v>
+        <v>1734</v>
       </c>
       <c r="H255" t="s">
-        <v>1877</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12676,13 +12754,13 @@
         <v>1279</v>
       </c>
       <c r="F256" t="s">
-        <v>1447</v>
+        <v>1458</v>
       </c>
       <c r="G256" t="s">
-        <v>1718</v>
+        <v>1735</v>
       </c>
       <c r="H256" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12702,13 +12780,13 @@
         <v>1286</v>
       </c>
       <c r="F257" t="s">
-        <v>1448</v>
+        <v>1459</v>
       </c>
       <c r="G257" t="s">
-        <v>1719</v>
+        <v>1736</v>
       </c>
       <c r="H257" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12728,13 +12806,13 @@
         <v>1279</v>
       </c>
       <c r="F258" t="s">
-        <v>1449</v>
+        <v>1460</v>
       </c>
       <c r="G258" t="s">
-        <v>1720</v>
+        <v>1737</v>
       </c>
       <c r="H258" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12760,7 +12838,7 @@
         <v>1065</v>
       </c>
       <c r="H259" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12780,13 +12858,13 @@
         <v>1279</v>
       </c>
       <c r="F260" t="s">
-        <v>1294</v>
+        <v>1451</v>
       </c>
       <c r="G260" t="s">
-        <v>1700</v>
+        <v>1717</v>
       </c>
       <c r="H260" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12806,13 +12884,13 @@
         <v>1285</v>
       </c>
       <c r="F261" t="s">
-        <v>1450</v>
+        <v>1461</v>
       </c>
       <c r="G261" t="s">
-        <v>1721</v>
+        <v>1738</v>
       </c>
       <c r="H261" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12832,13 +12910,13 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G262" t="s">
-        <v>1546</v>
+        <v>1559</v>
       </c>
       <c r="H262" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12861,10 +12939,10 @@
         <v>1285</v>
       </c>
       <c r="G263" t="s">
-        <v>1554</v>
+        <v>1567</v>
       </c>
       <c r="H263" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12887,10 +12965,10 @@
         <v>1285</v>
       </c>
       <c r="G264" t="s">
-        <v>1598</v>
+        <v>1615</v>
       </c>
       <c r="H264" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12910,13 +12988,13 @@
         <v>1311</v>
       </c>
       <c r="F265" t="s">
-        <v>1451</v>
+        <v>1462</v>
       </c>
       <c r="G265" t="s">
-        <v>1722</v>
+        <v>1739</v>
       </c>
       <c r="H265" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12936,13 +13014,13 @@
         <v>1294</v>
       </c>
       <c r="F266" t="s">
-        <v>1452</v>
+        <v>1463</v>
       </c>
       <c r="G266" t="s">
-        <v>1723</v>
+        <v>1740</v>
       </c>
       <c r="H266" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12962,13 +13040,13 @@
         <v>1279</v>
       </c>
       <c r="F267" t="s">
-        <v>1453</v>
+        <v>1464</v>
       </c>
       <c r="G267" t="s">
-        <v>1724</v>
+        <v>1741</v>
       </c>
       <c r="H267" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12988,13 +13066,13 @@
         <v>1286</v>
       </c>
       <c r="F268" t="s">
-        <v>1454</v>
+        <v>1465</v>
       </c>
       <c r="G268" t="s">
-        <v>1725</v>
+        <v>1742</v>
       </c>
       <c r="H268" t="s">
-        <v>1873</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -13014,13 +13092,13 @@
         <v>1276</v>
       </c>
       <c r="F269" t="s">
-        <v>1455</v>
+        <v>1466</v>
       </c>
       <c r="G269" t="s">
-        <v>1726</v>
+        <v>1743</v>
       </c>
       <c r="H269" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -13040,13 +13118,13 @@
         <v>1276</v>
       </c>
       <c r="F270" t="s">
-        <v>1294</v>
+        <v>1403</v>
       </c>
       <c r="G270" t="s">
-        <v>1727</v>
+        <v>1744</v>
       </c>
       <c r="H270" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -13066,13 +13144,13 @@
         <v>1304</v>
       </c>
       <c r="F271" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G271" t="s">
-        <v>1728</v>
+        <v>1745</v>
       </c>
       <c r="H271" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -13092,13 +13170,13 @@
         <v>1286</v>
       </c>
       <c r="F272" t="s">
-        <v>1456</v>
+        <v>1422</v>
       </c>
       <c r="G272" t="s">
-        <v>1729</v>
+        <v>1746</v>
       </c>
       <c r="H272" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -13118,13 +13196,13 @@
         <v>1279</v>
       </c>
       <c r="F273" t="s">
-        <v>1457</v>
+        <v>1467</v>
       </c>
       <c r="G273" t="s">
-        <v>1730</v>
+        <v>1747</v>
       </c>
       <c r="H273" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -13144,13 +13222,13 @@
         <v>1285</v>
       </c>
       <c r="F274" t="s">
-        <v>1458</v>
+        <v>1468</v>
       </c>
       <c r="G274" t="s">
-        <v>1731</v>
+        <v>1748</v>
       </c>
       <c r="H274" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -13170,13 +13248,13 @@
         <v>1319</v>
       </c>
       <c r="F275" t="s">
-        <v>1459</v>
+        <v>1469</v>
       </c>
       <c r="G275" t="s">
-        <v>1732</v>
+        <v>1749</v>
       </c>
       <c r="H275" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -13199,10 +13277,10 @@
         <v>1285</v>
       </c>
       <c r="G276" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H276" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -13222,13 +13300,13 @@
         <v>1276</v>
       </c>
       <c r="F277" t="s">
-        <v>1460</v>
+        <v>1470</v>
       </c>
       <c r="G277" t="s">
-        <v>1733</v>
+        <v>1750</v>
       </c>
       <c r="H277" t="s">
-        <v>1877</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -13251,10 +13329,10 @@
         <v>1461</v>
       </c>
       <c r="G278" t="s">
-        <v>1734</v>
+        <v>1751</v>
       </c>
       <c r="H278" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -13274,13 +13352,13 @@
         <v>1276</v>
       </c>
       <c r="F279" t="s">
-        <v>1278</v>
+        <v>1471</v>
       </c>
       <c r="G279" t="s">
-        <v>1568</v>
+        <v>1752</v>
       </c>
       <c r="H279" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13300,13 +13378,13 @@
         <v>1276</v>
       </c>
       <c r="F280" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G280" t="s">
-        <v>1735</v>
+        <v>1753</v>
       </c>
       <c r="H280" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13325,8 +13403,11 @@
       <c r="E281" t="s">
         <v>1276</v>
       </c>
+      <c r="G281" t="s">
+        <v>1022</v>
+      </c>
       <c r="H281" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13346,13 +13427,13 @@
         <v>1276</v>
       </c>
       <c r="F282" t="s">
-        <v>1462</v>
+        <v>1472</v>
       </c>
       <c r="G282" t="s">
-        <v>1736</v>
+        <v>1754</v>
       </c>
       <c r="H282" t="s">
-        <v>1877</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13375,10 +13456,10 @@
         <v>1285</v>
       </c>
       <c r="G283" t="s">
-        <v>1737</v>
+        <v>1755</v>
       </c>
       <c r="H283" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13398,13 +13479,13 @@
         <v>1320</v>
       </c>
       <c r="F284" t="s">
-        <v>1463</v>
+        <v>1473</v>
       </c>
       <c r="G284" t="s">
-        <v>1738</v>
+        <v>1756</v>
       </c>
       <c r="H284" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13424,13 +13505,13 @@
         <v>1276</v>
       </c>
       <c r="F285" t="s">
-        <v>1464</v>
+        <v>1430</v>
       </c>
       <c r="G285" t="s">
-        <v>1739</v>
+        <v>1757</v>
       </c>
       <c r="H285" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13450,13 +13531,13 @@
         <v>1276</v>
       </c>
       <c r="F286" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="G286" t="s">
-        <v>1740</v>
+        <v>1758</v>
       </c>
       <c r="H286" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13476,13 +13557,13 @@
         <v>1279</v>
       </c>
       <c r="F287" t="s">
-        <v>1448</v>
+        <v>1474</v>
       </c>
       <c r="G287" t="s">
-        <v>1741</v>
+        <v>1759</v>
       </c>
       <c r="H287" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13501,8 +13582,14 @@
       <c r="E288" t="s">
         <v>1276</v>
       </c>
+      <c r="F288" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G288" t="s">
+        <v>983</v>
+      </c>
       <c r="H288" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13522,13 +13609,13 @@
         <v>1285</v>
       </c>
       <c r="F289" t="s">
-        <v>1465</v>
+        <v>1475</v>
       </c>
       <c r="G289" t="s">
-        <v>1742</v>
+        <v>1760</v>
       </c>
       <c r="H289" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13551,10 +13638,10 @@
         <v>1351</v>
       </c>
       <c r="G290" t="s">
-        <v>1743</v>
+        <v>1761</v>
       </c>
       <c r="H290" t="s">
-        <v>1873</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13577,10 +13664,10 @@
         <v>1294</v>
       </c>
       <c r="G291" t="s">
-        <v>1744</v>
+        <v>1762</v>
       </c>
       <c r="H291" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13603,10 +13690,10 @@
         <v>1379</v>
       </c>
       <c r="G292" t="s">
-        <v>1745</v>
+        <v>1763</v>
       </c>
       <c r="H292" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13626,13 +13713,13 @@
         <v>1298</v>
       </c>
       <c r="F293" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G293" t="s">
-        <v>1746</v>
+        <v>1764</v>
       </c>
       <c r="H293" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13658,7 +13745,7 @@
         <v>1089</v>
       </c>
       <c r="H294" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13684,7 +13771,7 @@
         <v>947</v>
       </c>
       <c r="H295" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13704,13 +13791,13 @@
         <v>1276</v>
       </c>
       <c r="F296" t="s">
-        <v>1402</v>
+        <v>1380</v>
       </c>
       <c r="G296" t="s">
-        <v>1613</v>
+        <v>1630</v>
       </c>
       <c r="H296" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13733,10 +13820,10 @@
         <v>1276</v>
       </c>
       <c r="G297" t="s">
-        <v>1747</v>
+        <v>1765</v>
       </c>
       <c r="H297" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13756,13 +13843,13 @@
         <v>1294</v>
       </c>
       <c r="F298" t="s">
-        <v>1458</v>
+        <v>1476</v>
       </c>
       <c r="G298" t="s">
-        <v>1748</v>
+        <v>1766</v>
       </c>
       <c r="H298" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13788,7 +13875,7 @@
         <v>947</v>
       </c>
       <c r="H299" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13807,8 +13894,14 @@
       <c r="E300" t="s">
         <v>1276</v>
       </c>
+      <c r="F300" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G300" t="s">
+        <v>951</v>
+      </c>
       <c r="H300" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13831,10 +13924,10 @@
         <v>1285</v>
       </c>
       <c r="G301" t="s">
-        <v>1513</v>
+        <v>1527</v>
       </c>
       <c r="H301" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13857,10 +13950,10 @@
         <v>1368</v>
       </c>
       <c r="G302" t="s">
-        <v>1550</v>
+        <v>1563</v>
       </c>
       <c r="H302" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13880,13 +13973,13 @@
         <v>1276</v>
       </c>
       <c r="F303" t="s">
-        <v>1466</v>
+        <v>1477</v>
       </c>
       <c r="G303" t="s">
-        <v>1749</v>
+        <v>1767</v>
       </c>
       <c r="H303" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13906,13 +13999,13 @@
         <v>1322</v>
       </c>
       <c r="F304" t="s">
-        <v>1278</v>
+        <v>1351</v>
       </c>
       <c r="G304" t="s">
-        <v>1000</v>
+        <v>1768</v>
       </c>
       <c r="H304" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13932,13 +14025,13 @@
         <v>1279</v>
       </c>
       <c r="F305" t="s">
-        <v>1373</v>
+        <v>1478</v>
       </c>
       <c r="G305" t="s">
-        <v>1750</v>
+        <v>1769</v>
       </c>
       <c r="H305" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13958,13 +14051,13 @@
         <v>1276</v>
       </c>
       <c r="F306" t="s">
-        <v>1467</v>
+        <v>1429</v>
       </c>
       <c r="G306" t="s">
-        <v>1751</v>
+        <v>1770</v>
       </c>
       <c r="H306" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13990,7 +14083,7 @@
         <v>947</v>
       </c>
       <c r="H307" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -14010,13 +14103,13 @@
         <v>1279</v>
       </c>
       <c r="F308" t="s">
-        <v>1340</v>
+        <v>1478</v>
       </c>
       <c r="G308" t="s">
-        <v>1752</v>
+        <v>1771</v>
       </c>
       <c r="H308" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -14042,7 +14135,7 @@
         <v>1089</v>
       </c>
       <c r="H309" t="s">
-        <v>1866</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -14068,7 +14161,7 @@
         <v>1089</v>
       </c>
       <c r="H310" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -14088,13 +14181,13 @@
         <v>1285</v>
       </c>
       <c r="F311" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G311" t="s">
-        <v>1546</v>
+        <v>1559</v>
       </c>
       <c r="H311" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -14114,13 +14207,13 @@
         <v>1285</v>
       </c>
       <c r="F312" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="G312" t="s">
-        <v>1753</v>
+        <v>1772</v>
       </c>
       <c r="H312" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -14146,7 +14239,7 @@
         <v>947</v>
       </c>
       <c r="H313" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -14172,7 +14265,7 @@
         <v>947</v>
       </c>
       <c r="H314" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -14192,13 +14285,13 @@
         <v>1294</v>
       </c>
       <c r="F315" t="s">
-        <v>1468</v>
+        <v>1479</v>
       </c>
       <c r="G315" t="s">
-        <v>1754</v>
+        <v>1773</v>
       </c>
       <c r="H315" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -14218,13 +14311,13 @@
         <v>1276</v>
       </c>
       <c r="F316" t="s">
-        <v>1468</v>
+        <v>1383</v>
       </c>
       <c r="G316" t="s">
-        <v>1755</v>
+        <v>1774</v>
       </c>
       <c r="H316" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -14244,13 +14337,13 @@
         <v>1276</v>
       </c>
       <c r="F317" t="s">
-        <v>1402</v>
+        <v>1380</v>
       </c>
       <c r="G317" t="s">
-        <v>1613</v>
+        <v>1630</v>
       </c>
       <c r="H317" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14273,10 +14366,10 @@
         <v>1351</v>
       </c>
       <c r="G318" t="s">
-        <v>1529</v>
+        <v>1543</v>
       </c>
       <c r="H318" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14295,8 +14388,14 @@
       <c r="E319" t="s">
         <v>1285</v>
       </c>
+      <c r="F319" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1171</v>
+      </c>
       <c r="H319" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14316,13 +14415,13 @@
         <v>1285</v>
       </c>
       <c r="F320" t="s">
-        <v>1468</v>
+        <v>1383</v>
       </c>
       <c r="G320" t="s">
-        <v>1756</v>
+        <v>1775</v>
       </c>
       <c r="H320" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14342,13 +14441,13 @@
         <v>1315</v>
       </c>
       <c r="F321" t="s">
-        <v>1416</v>
+        <v>1472</v>
       </c>
       <c r="G321" t="s">
-        <v>1757</v>
+        <v>1776</v>
       </c>
       <c r="H321" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14371,10 +14470,10 @@
         <v>1285</v>
       </c>
       <c r="G322" t="s">
-        <v>1554</v>
+        <v>1567</v>
       </c>
       <c r="H322" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14397,10 +14496,10 @@
         <v>1285</v>
       </c>
       <c r="G323" t="s">
-        <v>1758</v>
+        <v>1777</v>
       </c>
       <c r="H323" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14420,13 +14519,13 @@
         <v>1279</v>
       </c>
       <c r="F324" t="s">
-        <v>1340</v>
+        <v>1478</v>
       </c>
       <c r="G324" t="s">
-        <v>1759</v>
+        <v>1778</v>
       </c>
       <c r="H324" t="s">
-        <v>1872</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14452,7 +14551,7 @@
         <v>947</v>
       </c>
       <c r="H325" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14475,10 +14574,10 @@
         <v>1379</v>
       </c>
       <c r="G326" t="s">
-        <v>1760</v>
+        <v>1779</v>
       </c>
       <c r="H326" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14501,10 +14600,10 @@
         <v>1376</v>
       </c>
       <c r="G327" t="s">
-        <v>1761</v>
+        <v>1780</v>
       </c>
       <c r="H327" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14527,10 +14626,10 @@
         <v>1337</v>
       </c>
       <c r="G328" t="s">
-        <v>1762</v>
+        <v>1781</v>
       </c>
       <c r="H328" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14550,13 +14649,13 @@
         <v>1323</v>
       </c>
       <c r="F329" t="s">
-        <v>1469</v>
+        <v>1480</v>
       </c>
       <c r="G329" t="s">
-        <v>1763</v>
+        <v>1782</v>
       </c>
       <c r="H329" t="s">
-        <v>1887</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14576,13 +14675,13 @@
         <v>1285</v>
       </c>
       <c r="F330" t="s">
-        <v>1470</v>
+        <v>1481</v>
       </c>
       <c r="G330" t="s">
-        <v>1764</v>
+        <v>1783</v>
       </c>
       <c r="H330" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14602,13 +14701,13 @@
         <v>1297</v>
       </c>
       <c r="F331" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="G331" t="s">
-        <v>1765</v>
+        <v>1784</v>
       </c>
       <c r="H331" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14631,10 +14730,10 @@
         <v>1285</v>
       </c>
       <c r="G332" t="s">
-        <v>1554</v>
+        <v>1567</v>
       </c>
       <c r="H332" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14654,13 +14753,13 @@
         <v>1276</v>
       </c>
       <c r="F333" t="s">
-        <v>1471</v>
+        <v>1482</v>
       </c>
       <c r="G333" t="s">
-        <v>1766</v>
+        <v>1785</v>
       </c>
       <c r="H333" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14680,13 +14779,13 @@
         <v>1285</v>
       </c>
       <c r="F334" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G334" t="s">
-        <v>1767</v>
+        <v>1786</v>
       </c>
       <c r="H334" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14706,13 +14805,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1444</v>
+        <v>1453</v>
       </c>
       <c r="G335" t="s">
-        <v>1768</v>
+        <v>1787</v>
       </c>
       <c r="H335" t="s">
-        <v>1877</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14735,10 +14834,10 @@
         <v>1337</v>
       </c>
       <c r="G336" t="s">
-        <v>1769</v>
+        <v>1788</v>
       </c>
       <c r="H336" t="s">
-        <v>1866</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14758,13 +14857,13 @@
         <v>1311</v>
       </c>
       <c r="F337" t="s">
-        <v>1472</v>
+        <v>1483</v>
       </c>
       <c r="G337" t="s">
-        <v>1770</v>
+        <v>1789</v>
       </c>
       <c r="H337" t="s">
-        <v>1872</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14784,13 +14883,13 @@
         <v>1297</v>
       </c>
       <c r="F338" t="s">
-        <v>1468</v>
+        <v>1484</v>
       </c>
       <c r="G338" t="s">
-        <v>1754</v>
+        <v>1790</v>
       </c>
       <c r="H338" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14810,13 +14909,13 @@
         <v>1276</v>
       </c>
       <c r="F339" t="s">
-        <v>1473</v>
+        <v>1485</v>
       </c>
       <c r="G339" t="s">
-        <v>1771</v>
+        <v>1791</v>
       </c>
       <c r="H339" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14839,10 +14938,10 @@
         <v>1294</v>
       </c>
       <c r="G340" t="s">
-        <v>1772</v>
+        <v>1792</v>
       </c>
       <c r="H340" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14862,13 +14961,13 @@
         <v>1317</v>
       </c>
       <c r="F341" t="s">
-        <v>1448</v>
+        <v>1474</v>
       </c>
       <c r="G341" t="s">
-        <v>1773</v>
+        <v>1793</v>
       </c>
       <c r="H341" t="s">
-        <v>1888</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14888,13 +14987,13 @@
         <v>1276</v>
       </c>
       <c r="F342" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G342" t="s">
-        <v>1526</v>
+        <v>1540</v>
       </c>
       <c r="H342" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14914,13 +15013,13 @@
         <v>1300</v>
       </c>
       <c r="F343" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="G343" t="s">
-        <v>1774</v>
+        <v>1794</v>
       </c>
       <c r="H343" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14940,13 +15039,13 @@
         <v>1324</v>
       </c>
       <c r="F344" t="s">
-        <v>1474</v>
+        <v>1486</v>
       </c>
       <c r="G344" t="s">
-        <v>1775</v>
+        <v>1795</v>
       </c>
       <c r="H344" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14966,13 +15065,13 @@
         <v>1279</v>
       </c>
       <c r="F345" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="G345" t="s">
-        <v>1776</v>
+        <v>1796</v>
       </c>
       <c r="H345" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14992,13 +15091,13 @@
         <v>1300</v>
       </c>
       <c r="F346" t="s">
-        <v>1475</v>
+        <v>1487</v>
       </c>
       <c r="G346" t="s">
-        <v>1777</v>
+        <v>1797</v>
       </c>
       <c r="H346" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -15024,7 +15123,7 @@
         <v>947</v>
       </c>
       <c r="H347" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -15043,8 +15142,14 @@
       <c r="E348" t="s">
         <v>1276</v>
       </c>
+      <c r="F348" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G348" t="s">
+        <v>951</v>
+      </c>
       <c r="H348" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -15070,7 +15175,7 @@
         <v>1089</v>
       </c>
       <c r="H349" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -15090,13 +15195,13 @@
         <v>1276</v>
       </c>
       <c r="F350" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G350" t="s">
-        <v>1526</v>
+        <v>1540</v>
       </c>
       <c r="H350" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -15116,13 +15221,13 @@
         <v>1279</v>
       </c>
       <c r="F351" t="s">
-        <v>1476</v>
+        <v>1488</v>
       </c>
       <c r="G351" t="s">
-        <v>1778</v>
+        <v>1798</v>
       </c>
       <c r="H351" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -15142,13 +15247,13 @@
         <v>1322</v>
       </c>
       <c r="F352" t="s">
-        <v>1477</v>
+        <v>1489</v>
       </c>
       <c r="G352" t="s">
-        <v>1779</v>
+        <v>1799</v>
       </c>
       <c r="H352" t="s">
-        <v>1876</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -15168,13 +15273,13 @@
         <v>1285</v>
       </c>
       <c r="F353" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G353" t="s">
-        <v>1546</v>
+        <v>1559</v>
       </c>
       <c r="H353" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -15194,13 +15299,13 @@
         <v>1276</v>
       </c>
       <c r="F354" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G354" t="s">
-        <v>1780</v>
+        <v>1800</v>
       </c>
       <c r="H354" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -15223,10 +15328,10 @@
         <v>1278</v>
       </c>
       <c r="G355" t="s">
-        <v>1781</v>
+        <v>1801</v>
       </c>
       <c r="H355" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15252,7 +15357,7 @@
         <v>947</v>
       </c>
       <c r="H356" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15272,13 +15377,13 @@
         <v>1325</v>
       </c>
       <c r="F357" t="s">
-        <v>1478</v>
+        <v>1490</v>
       </c>
       <c r="G357" t="s">
-        <v>1782</v>
+        <v>1802</v>
       </c>
       <c r="H357" t="s">
-        <v>1889</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15298,13 +15403,13 @@
         <v>1276</v>
       </c>
       <c r="F358" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G358" t="s">
-        <v>1526</v>
+        <v>1540</v>
       </c>
       <c r="H358" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15324,13 +15429,13 @@
         <v>1298</v>
       </c>
       <c r="F359" t="s">
-        <v>1399</v>
+        <v>1491</v>
       </c>
       <c r="G359" t="s">
-        <v>1783</v>
+        <v>1803</v>
       </c>
       <c r="H359" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15356,7 +15461,7 @@
         <v>1199</v>
       </c>
       <c r="H360" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15376,13 +15481,13 @@
         <v>1279</v>
       </c>
       <c r="F361" t="s">
-        <v>1479</v>
+        <v>1379</v>
       </c>
       <c r="G361" t="s">
-        <v>1784</v>
+        <v>1588</v>
       </c>
       <c r="H361" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15402,13 +15507,13 @@
         <v>1298</v>
       </c>
       <c r="F362" t="s">
-        <v>1384</v>
+        <v>1340</v>
       </c>
       <c r="G362" t="s">
-        <v>1785</v>
+        <v>1804</v>
       </c>
       <c r="H362" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15428,13 +15533,13 @@
         <v>1286</v>
       </c>
       <c r="F363" t="s">
-        <v>1480</v>
+        <v>1492</v>
       </c>
       <c r="G363" t="s">
-        <v>1786</v>
+        <v>1805</v>
       </c>
       <c r="H363" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15454,13 +15559,13 @@
         <v>1279</v>
       </c>
       <c r="F364" t="s">
-        <v>1481</v>
+        <v>1493</v>
       </c>
       <c r="G364" t="s">
-        <v>1787</v>
+        <v>1806</v>
       </c>
       <c r="H364" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15480,13 +15585,13 @@
         <v>1279</v>
       </c>
       <c r="F365" t="s">
-        <v>1482</v>
+        <v>1494</v>
       </c>
       <c r="G365" t="s">
-        <v>1788</v>
+        <v>1807</v>
       </c>
       <c r="H365" t="s">
-        <v>1890</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15509,10 +15614,10 @@
         <v>1337</v>
       </c>
       <c r="G366" t="s">
-        <v>1789</v>
+        <v>1808</v>
       </c>
       <c r="H366" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15532,13 +15637,13 @@
         <v>1279</v>
       </c>
       <c r="F367" t="s">
-        <v>1452</v>
+        <v>1495</v>
       </c>
       <c r="G367" t="s">
-        <v>1790</v>
+        <v>1809</v>
       </c>
       <c r="H367" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15561,10 +15666,10 @@
         <v>1379</v>
       </c>
       <c r="G368" t="s">
-        <v>1791</v>
+        <v>1810</v>
       </c>
       <c r="H368" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15584,13 +15689,13 @@
         <v>1322</v>
       </c>
       <c r="F369" t="s">
-        <v>1452</v>
+        <v>1495</v>
       </c>
       <c r="G369" t="s">
-        <v>1792</v>
+        <v>1811</v>
       </c>
       <c r="H369" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15609,14 +15714,8 @@
       <c r="E370" t="s">
         <v>1285</v>
       </c>
-      <c r="F370" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G370" t="s">
-        <v>1793</v>
-      </c>
       <c r="H370" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15636,13 +15735,13 @@
         <v>1279</v>
       </c>
       <c r="F371" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G371" t="s">
-        <v>1794</v>
+        <v>1812</v>
       </c>
       <c r="H371" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15662,13 +15761,13 @@
         <v>1285</v>
       </c>
       <c r="F372" t="s">
-        <v>1483</v>
+        <v>1496</v>
       </c>
       <c r="G372" t="s">
-        <v>1795</v>
+        <v>1813</v>
       </c>
       <c r="H372" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15688,13 +15787,13 @@
         <v>1285</v>
       </c>
       <c r="F373" t="s">
-        <v>1278</v>
+        <v>1346</v>
       </c>
       <c r="G373" t="s">
-        <v>1796</v>
+        <v>1814</v>
       </c>
       <c r="H373" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15714,7 +15813,7 @@
         <v>1285</v>
       </c>
       <c r="H374" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15740,7 +15839,7 @@
         <v>1211</v>
       </c>
       <c r="H375" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15760,13 +15859,13 @@
         <v>1279</v>
       </c>
       <c r="F376" t="s">
-        <v>1484</v>
+        <v>1497</v>
       </c>
       <c r="G376" t="s">
-        <v>1797</v>
+        <v>1815</v>
       </c>
       <c r="H376" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15786,13 +15885,13 @@
         <v>1279</v>
       </c>
       <c r="F377" t="s">
-        <v>1485</v>
+        <v>1498</v>
       </c>
       <c r="G377" t="s">
-        <v>1798</v>
+        <v>1816</v>
       </c>
       <c r="H377" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15815,10 +15914,10 @@
         <v>1278</v>
       </c>
       <c r="G378" t="s">
-        <v>1799</v>
+        <v>1817</v>
       </c>
       <c r="H378" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15838,13 +15937,13 @@
         <v>1326</v>
       </c>
       <c r="F379" t="s">
-        <v>1486</v>
+        <v>1499</v>
       </c>
       <c r="G379" t="s">
-        <v>1800</v>
+        <v>1818</v>
       </c>
       <c r="H379" t="s">
-        <v>1874</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15870,7 +15969,7 @@
         <v>1065</v>
       </c>
       <c r="H380" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15890,13 +15989,13 @@
         <v>1322</v>
       </c>
       <c r="F381" t="s">
-        <v>1340</v>
+        <v>1478</v>
       </c>
       <c r="G381" t="s">
-        <v>1801</v>
+        <v>1819</v>
       </c>
       <c r="H381" t="s">
-        <v>1866</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15916,13 +16015,13 @@
         <v>1327</v>
       </c>
       <c r="F382" t="s">
-        <v>1487</v>
+        <v>1500</v>
       </c>
       <c r="G382" t="s">
-        <v>1802</v>
+        <v>1820</v>
       </c>
       <c r="H382" t="s">
-        <v>1891</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15942,13 +16041,13 @@
         <v>1328</v>
       </c>
       <c r="F383" t="s">
-        <v>1488</v>
+        <v>1501</v>
       </c>
       <c r="G383" t="s">
-        <v>1803</v>
+        <v>1821</v>
       </c>
       <c r="H383" t="s">
-        <v>1882</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15968,13 +16067,13 @@
         <v>1329</v>
       </c>
       <c r="F384" t="s">
-        <v>1489</v>
+        <v>1502</v>
       </c>
       <c r="G384" t="s">
-        <v>1804</v>
+        <v>1822</v>
       </c>
       <c r="H384" t="s">
-        <v>1866</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15994,13 +16093,13 @@
         <v>1279</v>
       </c>
       <c r="F385" t="s">
-        <v>1340</v>
+        <v>1478</v>
       </c>
       <c r="G385" t="s">
-        <v>1759</v>
+        <v>1778</v>
       </c>
       <c r="H385" t="s">
-        <v>1881</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -16023,10 +16122,10 @@
         <v>1373</v>
       </c>
       <c r="G386" t="s">
-        <v>1805</v>
+        <v>1823</v>
       </c>
       <c r="H386" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -16046,13 +16145,13 @@
         <v>1294</v>
       </c>
       <c r="F387" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G387" t="s">
-        <v>1806</v>
+        <v>1824</v>
       </c>
       <c r="H387" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -16078,7 +16177,7 @@
         <v>1089</v>
       </c>
       <c r="H388" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -16101,10 +16200,10 @@
         <v>1337</v>
       </c>
       <c r="G389" t="s">
-        <v>1769</v>
+        <v>1788</v>
       </c>
       <c r="H389" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -16124,13 +16223,13 @@
         <v>1295</v>
       </c>
       <c r="F390" t="s">
-        <v>1490</v>
+        <v>1503</v>
       </c>
       <c r="G390" t="s">
-        <v>1807</v>
+        <v>1825</v>
       </c>
       <c r="H390" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -16150,13 +16249,13 @@
         <v>1285</v>
       </c>
       <c r="F391" t="s">
-        <v>1392</v>
+        <v>1504</v>
       </c>
       <c r="G391" t="s">
-        <v>1808</v>
+        <v>1826</v>
       </c>
       <c r="H391" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -16179,10 +16278,10 @@
         <v>1337</v>
       </c>
       <c r="G392" t="s">
-        <v>1809</v>
+        <v>1827</v>
       </c>
       <c r="H392" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -16202,13 +16301,13 @@
         <v>1279</v>
       </c>
       <c r="F393" t="s">
-        <v>1491</v>
+        <v>1505</v>
       </c>
       <c r="G393" t="s">
-        <v>1810</v>
+        <v>1828</v>
       </c>
       <c r="H393" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -16228,13 +16327,13 @@
         <v>1285</v>
       </c>
       <c r="F394" t="s">
-        <v>1492</v>
+        <v>1476</v>
       </c>
       <c r="G394" t="s">
-        <v>1811</v>
+        <v>1829</v>
       </c>
       <c r="H394" t="s">
-        <v>1876</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16257,10 +16356,10 @@
         <v>1337</v>
       </c>
       <c r="G395" t="s">
-        <v>1789</v>
+        <v>1808</v>
       </c>
       <c r="H395" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16280,13 +16379,13 @@
         <v>1285</v>
       </c>
       <c r="F396" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G396" t="s">
-        <v>1812</v>
+        <v>1830</v>
       </c>
       <c r="H396" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16306,13 +16405,13 @@
         <v>1279</v>
       </c>
       <c r="F397" t="s">
-        <v>1448</v>
+        <v>1474</v>
       </c>
       <c r="G397" t="s">
-        <v>1741</v>
+        <v>1759</v>
       </c>
       <c r="H397" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16338,7 +16437,7 @@
         <v>1089</v>
       </c>
       <c r="H398" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16358,13 +16457,13 @@
         <v>1285</v>
       </c>
       <c r="F399" t="s">
-        <v>1428</v>
+        <v>1433</v>
       </c>
       <c r="G399" t="s">
-        <v>1616</v>
+        <v>1633</v>
       </c>
       <c r="H399" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16384,13 +16483,13 @@
         <v>1304</v>
       </c>
       <c r="F400" t="s">
-        <v>1356</v>
+        <v>1506</v>
       </c>
       <c r="G400" t="s">
-        <v>1813</v>
+        <v>1831</v>
       </c>
       <c r="H400" t="s">
-        <v>1892</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16410,13 +16509,13 @@
         <v>1294</v>
       </c>
       <c r="F401" t="s">
-        <v>1399</v>
+        <v>1491</v>
       </c>
       <c r="G401" t="s">
-        <v>1814</v>
+        <v>1832</v>
       </c>
       <c r="H401" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16436,13 +16535,13 @@
         <v>1294</v>
       </c>
       <c r="F402" t="s">
-        <v>1479</v>
+        <v>1507</v>
       </c>
       <c r="G402" t="s">
-        <v>1815</v>
+        <v>1833</v>
       </c>
       <c r="H402" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16465,10 +16564,10 @@
         <v>1379</v>
       </c>
       <c r="G403" t="s">
-        <v>1816</v>
+        <v>1834</v>
       </c>
       <c r="H403" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16488,13 +16587,13 @@
         <v>1279</v>
       </c>
       <c r="F404" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G404" t="s">
-        <v>1817</v>
+        <v>1835</v>
       </c>
       <c r="H404" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16517,10 +16616,10 @@
         <v>1359</v>
       </c>
       <c r="G405" t="s">
-        <v>1818</v>
+        <v>1836</v>
       </c>
       <c r="H405" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16540,13 +16639,13 @@
         <v>1285</v>
       </c>
       <c r="F406" t="s">
-        <v>1493</v>
+        <v>1385</v>
       </c>
       <c r="G406" t="s">
-        <v>1819</v>
+        <v>1837</v>
       </c>
       <c r="H406" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16566,13 +16665,13 @@
         <v>1294</v>
       </c>
       <c r="F407" t="s">
-        <v>1494</v>
+        <v>1508</v>
       </c>
       <c r="G407" t="s">
-        <v>1820</v>
+        <v>1838</v>
       </c>
       <c r="H407" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16592,13 +16691,13 @@
         <v>1285</v>
       </c>
       <c r="F408" t="s">
-        <v>1285</v>
+        <v>1340</v>
       </c>
       <c r="G408" t="s">
-        <v>964</v>
+        <v>1839</v>
       </c>
       <c r="H408" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16618,13 +16717,13 @@
         <v>1285</v>
       </c>
       <c r="F409" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G409" t="s">
-        <v>1546</v>
+        <v>1559</v>
       </c>
       <c r="H409" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16650,7 +16749,7 @@
         <v>1234</v>
       </c>
       <c r="H410" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16670,13 +16769,13 @@
         <v>1324</v>
       </c>
       <c r="F411" t="s">
-        <v>1495</v>
+        <v>1509</v>
       </c>
       <c r="G411" t="s">
-        <v>1821</v>
+        <v>1840</v>
       </c>
       <c r="H411" t="s">
-        <v>1879</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16699,10 +16798,10 @@
         <v>1285</v>
       </c>
       <c r="G412" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H412" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16725,10 +16824,10 @@
         <v>1355</v>
       </c>
       <c r="G413" t="s">
-        <v>1822</v>
+        <v>1841</v>
       </c>
       <c r="H413" t="s">
-        <v>1878</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16748,13 +16847,13 @@
         <v>1285</v>
       </c>
       <c r="F414" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G414" t="s">
-        <v>1823</v>
+        <v>1842</v>
       </c>
       <c r="H414" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16774,13 +16873,13 @@
         <v>1330</v>
       </c>
       <c r="F415" t="s">
-        <v>1496</v>
+        <v>1510</v>
       </c>
       <c r="G415" t="s">
-        <v>1824</v>
+        <v>1843</v>
       </c>
       <c r="H415" t="s">
-        <v>1893</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16800,13 +16899,13 @@
         <v>1285</v>
       </c>
       <c r="F416" t="s">
-        <v>1497</v>
+        <v>1511</v>
       </c>
       <c r="G416" t="s">
-        <v>1825</v>
+        <v>1844</v>
       </c>
       <c r="H416" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16832,7 +16931,7 @@
         <v>987</v>
       </c>
       <c r="H417" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16852,13 +16951,13 @@
         <v>1331</v>
       </c>
       <c r="F418" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G418" t="s">
-        <v>1606</v>
+        <v>1845</v>
       </c>
       <c r="H418" t="s">
-        <v>1880</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16878,13 +16977,13 @@
         <v>1295</v>
       </c>
       <c r="F419" t="s">
-        <v>1340</v>
+        <v>1478</v>
       </c>
       <c r="G419" t="s">
-        <v>1759</v>
+        <v>1778</v>
       </c>
       <c r="H419" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16907,10 +17006,10 @@
         <v>1359</v>
       </c>
       <c r="G420" t="s">
-        <v>1826</v>
+        <v>1846</v>
       </c>
       <c r="H420" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16930,13 +17029,13 @@
         <v>1294</v>
       </c>
       <c r="F421" t="s">
-        <v>1492</v>
+        <v>1476</v>
       </c>
       <c r="G421" t="s">
-        <v>1827</v>
+        <v>1847</v>
       </c>
       <c r="H421" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16956,13 +17055,13 @@
         <v>1286</v>
       </c>
       <c r="F422" t="s">
-        <v>1340</v>
+        <v>1478</v>
       </c>
       <c r="G422" t="s">
-        <v>1759</v>
+        <v>1778</v>
       </c>
       <c r="H422" t="s">
-        <v>1867</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16982,13 +17081,13 @@
         <v>1285</v>
       </c>
       <c r="F423" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="G423" t="s">
-        <v>1828</v>
+        <v>1848</v>
       </c>
       <c r="H423" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -17014,7 +17113,7 @@
         <v>1245</v>
       </c>
       <c r="H424" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -17037,10 +17136,10 @@
         <v>1337</v>
       </c>
       <c r="G425" t="s">
-        <v>1829</v>
+        <v>1849</v>
       </c>
       <c r="H425" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -17060,13 +17159,13 @@
         <v>1330</v>
       </c>
       <c r="F426" t="s">
-        <v>1498</v>
+        <v>1512</v>
       </c>
       <c r="G426" t="s">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="H426" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -17085,14 +17184,11 @@
       <c r="E427" t="s">
         <v>1285</v>
       </c>
-      <c r="F427" t="s">
-        <v>1499</v>
-      </c>
       <c r="G427" t="s">
-        <v>1831</v>
+        <v>1211</v>
       </c>
       <c r="H427" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -17112,13 +17208,13 @@
         <v>1279</v>
       </c>
       <c r="F428" t="s">
-        <v>1294</v>
+        <v>1451</v>
       </c>
       <c r="G428" t="s">
-        <v>1700</v>
+        <v>1717</v>
       </c>
       <c r="H428" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -17141,10 +17237,10 @@
         <v>1278</v>
       </c>
       <c r="G429" t="s">
-        <v>1832</v>
+        <v>1851</v>
       </c>
       <c r="H429" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -17164,13 +17260,13 @@
         <v>1294</v>
       </c>
       <c r="F430" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G430" t="s">
-        <v>1833</v>
+        <v>1852</v>
       </c>
       <c r="H430" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -17193,10 +17289,10 @@
         <v>1337</v>
       </c>
       <c r="G431" t="s">
-        <v>1834</v>
+        <v>1853</v>
       </c>
       <c r="H431" t="s">
-        <v>1894</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -17216,13 +17312,13 @@
         <v>1297</v>
       </c>
       <c r="F432" t="s">
-        <v>1468</v>
+        <v>1383</v>
       </c>
       <c r="G432" t="s">
-        <v>1835</v>
+        <v>1854</v>
       </c>
       <c r="H432" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17242,13 +17338,13 @@
         <v>1294</v>
       </c>
       <c r="F433" t="s">
-        <v>1428</v>
+        <v>1433</v>
       </c>
       <c r="G433" t="s">
-        <v>1616</v>
+        <v>1633</v>
       </c>
       <c r="H433" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17268,13 +17364,13 @@
         <v>1294</v>
       </c>
       <c r="F434" t="s">
-        <v>1500</v>
+        <v>1513</v>
       </c>
       <c r="G434" t="s">
-        <v>1836</v>
+        <v>1855</v>
       </c>
       <c r="H434" t="s">
-        <v>1890</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17294,13 +17390,13 @@
         <v>1285</v>
       </c>
       <c r="F435" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="G435" t="s">
-        <v>1837</v>
+        <v>1856</v>
       </c>
       <c r="H435" t="s">
-        <v>1881</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17320,13 +17416,13 @@
         <v>1330</v>
       </c>
       <c r="F436" t="s">
-        <v>1399</v>
+        <v>1491</v>
       </c>
       <c r="G436" t="s">
-        <v>1838</v>
+        <v>1857</v>
       </c>
       <c r="H436" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17345,14 +17441,8 @@
       <c r="E437" t="s">
         <v>1294</v>
       </c>
-      <c r="F437" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G437" t="s">
-        <v>1839</v>
-      </c>
       <c r="H437" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17378,7 +17468,7 @@
         <v>1089</v>
       </c>
       <c r="H438" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17398,13 +17488,13 @@
         <v>1279</v>
       </c>
       <c r="F439" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G439" t="s">
-        <v>1840</v>
+        <v>1858</v>
       </c>
       <c r="H439" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17424,13 +17514,13 @@
         <v>1279</v>
       </c>
       <c r="F440" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="G440" t="s">
-        <v>1841</v>
+        <v>1859</v>
       </c>
       <c r="H440" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17450,13 +17540,13 @@
         <v>1279</v>
       </c>
       <c r="F441" t="s">
-        <v>1501</v>
+        <v>1514</v>
       </c>
       <c r="G441" t="s">
-        <v>1842</v>
+        <v>1860</v>
       </c>
       <c r="H441" t="s">
-        <v>1866</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17476,13 +17566,13 @@
         <v>1279</v>
       </c>
       <c r="F442" t="s">
-        <v>1502</v>
+        <v>1515</v>
       </c>
       <c r="G442" t="s">
-        <v>1843</v>
+        <v>1861</v>
       </c>
       <c r="H442" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17502,13 +17592,13 @@
         <v>1294</v>
       </c>
       <c r="F443" t="s">
-        <v>1503</v>
+        <v>1430</v>
       </c>
       <c r="G443" t="s">
-        <v>1844</v>
+        <v>1862</v>
       </c>
       <c r="H443" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17528,13 +17618,13 @@
         <v>1279</v>
       </c>
       <c r="F444" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G444" t="s">
-        <v>1845</v>
+        <v>1863</v>
       </c>
       <c r="H444" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17554,13 +17644,13 @@
         <v>1332</v>
       </c>
       <c r="F445" t="s">
-        <v>1504</v>
+        <v>1516</v>
       </c>
       <c r="G445" t="s">
-        <v>1846</v>
+        <v>1864</v>
       </c>
       <c r="H445" t="s">
-        <v>1895</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17580,13 +17670,13 @@
         <v>1279</v>
       </c>
       <c r="F446" t="s">
-        <v>1479</v>
+        <v>1517</v>
       </c>
       <c r="G446" t="s">
-        <v>1847</v>
+        <v>1865</v>
       </c>
       <c r="H446" t="s">
-        <v>1869</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17606,13 +17696,13 @@
         <v>1322</v>
       </c>
       <c r="F447" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G447" t="s">
-        <v>1848</v>
+        <v>1866</v>
       </c>
       <c r="H447" t="s">
-        <v>1877</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17635,10 +17725,10 @@
         <v>1351</v>
       </c>
       <c r="G448" t="s">
-        <v>1849</v>
+        <v>1867</v>
       </c>
       <c r="H448" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17658,13 +17748,13 @@
         <v>1294</v>
       </c>
       <c r="F449" t="s">
-        <v>1456</v>
+        <v>1422</v>
       </c>
       <c r="G449" t="s">
-        <v>1850</v>
+        <v>1868</v>
       </c>
       <c r="H449" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17684,13 +17774,13 @@
         <v>1285</v>
       </c>
       <c r="F450" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="G450" t="s">
-        <v>1593</v>
+        <v>1869</v>
       </c>
       <c r="H450" t="s">
-        <v>1864</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17710,13 +17800,13 @@
         <v>1285</v>
       </c>
       <c r="F451" t="s">
-        <v>1352</v>
+        <v>1518</v>
       </c>
       <c r="G451" t="s">
-        <v>1851</v>
+        <v>1870</v>
       </c>
       <c r="H451" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17736,13 +17826,13 @@
         <v>1322</v>
       </c>
       <c r="F452" t="s">
-        <v>1479</v>
+        <v>1517</v>
       </c>
       <c r="G452" t="s">
-        <v>1852</v>
+        <v>1871</v>
       </c>
       <c r="H452" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17762,13 +17852,13 @@
         <v>1294</v>
       </c>
       <c r="F453" t="s">
-        <v>1505</v>
+        <v>1519</v>
       </c>
       <c r="G453" t="s">
-        <v>1853</v>
+        <v>1872</v>
       </c>
       <c r="H453" t="s">
-        <v>1865</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17788,13 +17878,13 @@
         <v>1333</v>
       </c>
       <c r="F454" t="s">
-        <v>1434</v>
+        <v>1520</v>
       </c>
       <c r="G454" t="s">
-        <v>1854</v>
+        <v>1873</v>
       </c>
       <c r="H454" t="s">
-        <v>1882</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17814,13 +17904,13 @@
         <v>1334</v>
       </c>
       <c r="F455" t="s">
-        <v>1506</v>
+        <v>1521</v>
       </c>
       <c r="G455" t="s">
-        <v>1855</v>
+        <v>1874</v>
       </c>
       <c r="H455" t="s">
-        <v>1887</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17840,13 +17930,13 @@
         <v>1279</v>
       </c>
       <c r="F456" t="s">
-        <v>1507</v>
+        <v>1522</v>
       </c>
       <c r="G456" t="s">
-        <v>1856</v>
+        <v>1875</v>
       </c>
       <c r="H456" t="s">
-        <v>1885</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17866,13 +17956,13 @@
         <v>1279</v>
       </c>
       <c r="F457" t="s">
-        <v>1508</v>
+        <v>1523</v>
       </c>
       <c r="G457" t="s">
-        <v>1857</v>
+        <v>1876</v>
       </c>
       <c r="H457" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17895,10 +17985,10 @@
         <v>1276</v>
       </c>
       <c r="G458" t="s">
-        <v>1858</v>
+        <v>1877</v>
       </c>
       <c r="H458" t="s">
-        <v>1896</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17918,13 +18008,13 @@
         <v>1294</v>
       </c>
       <c r="F459" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="G459" t="s">
-        <v>1859</v>
+        <v>1878</v>
       </c>
       <c r="H459" t="s">
-        <v>1862</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17944,13 +18034,13 @@
         <v>1330</v>
       </c>
       <c r="F460" t="s">
-        <v>1399</v>
+        <v>1491</v>
       </c>
       <c r="G460" t="s">
-        <v>1860</v>
+        <v>1879</v>
       </c>
       <c r="H460" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17970,13 +18060,13 @@
         <v>1322</v>
       </c>
       <c r="F461" t="s">
-        <v>1510</v>
+        <v>1524</v>
       </c>
       <c r="G461" t="s">
-        <v>1861</v>
+        <v>1880</v>
       </c>
       <c r="H461" t="s">
-        <v>1877</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17996,13 +18086,13 @@
         <v>1304</v>
       </c>
       <c r="F462" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G462" t="s">
-        <v>1546</v>
+        <v>1559</v>
       </c>
       <c r="H462" t="s">
-        <v>1863</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -18022,13 +18112,13 @@
         <v>1336</v>
       </c>
       <c r="F463" t="s">
-        <v>1294</v>
+        <v>1478</v>
       </c>
       <c r="G463" t="s">
-        <v>1700</v>
+        <v>1881</v>
       </c>
       <c r="H463" t="s">
-        <v>1866</v>
+        <v>1886</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/lda-partial-ner-w2v-money.xlsx
+++ b/Results/Categorization/lda-partial-ner-w2v-money.xlsx
@@ -4666,7 +4666,7 @@
     <t>prix|fixe|menu|penny|quantity|quality</t>
   </si>
   <si>
-    <t>fresh|food|filled|much|continually|refilled|tasty|$6!-</t>
+    <t>fresh|food|filled|much|continually|refilled|tasty|$6</t>
   </si>
   <si>
     <t>great|dish</t>
@@ -4756,7 +4756,7 @@
     <t>pizza|like</t>
   </si>
   <si>
-    <t>toppings|$20!-|$3!-</t>
+    <t>toppings|$20|$3</t>
   </si>
   <si>
     <t>good</t>
@@ -4834,7 +4834,7 @@
     <t>pretty</t>
   </si>
   <si>
-    <t>price|rice|dessert|$8.00!-</t>
+    <t>price|rice|dessert|$8.00</t>
   </si>
   <si>
     <t>made|price|always|well|selection|wine|rice</t>
@@ -5005,13 +5005,13 @@
     <t>good|well</t>
   </si>
   <si>
-    <t>food|order|$18!-</t>
+    <t>food|order|$18</t>
   </si>
   <si>
     <t>great|service|price|food|rice</t>
   </si>
   <si>
-    <t>price|dish|rice|rice|come|congee|noodle|reasonable|$3-6!-</t>
+    <t>price|dish|rice|rice|come|congee|noodle|reasonable|$3-6</t>
   </si>
   <si>
     <t>great|high|well|take</t>
@@ -5104,7 +5104,7 @@
     <t>restaurant|price|list|rest|wine|rice</t>
   </si>
   <si>
-    <t>list|selection|wine|listed|average|$70!-|$30!-</t>
+    <t>list|selection|wine|listed|average|$70|$30</t>
   </si>
   <si>
     <t>service|price|rice|would</t>
@@ -5227,7 +5227,7 @@
     <t>great|cheap|food</t>
   </si>
   <si>
-    <t>chip|come|like|$7!-</t>
+    <t>chip|come|like|$7</t>
   </si>
   <si>
     <t>sitting|uncomfortable|wooden</t>
@@ -5242,7 +5242,7 @@
     <t>good|high|price|though|food|rice</t>
   </si>
   <si>
-    <t>good|price|though|rice|lobster|$24!-</t>
+    <t>good|price|though|rice|lobster|$24</t>
   </si>
   <si>
     <t>knew|gift|opening|special|sort|dessert|must|card|candle|birthday</t>
@@ -5254,7 +5254,7 @@
     <t>cheap|food</t>
   </si>
   <si>
-    <t>great|delight|$10!-</t>
+    <t>great|delight|$10</t>
   </si>
   <si>
     <t>price|list|wine|rice</t>
@@ -5344,7 +5344,7 @@
     <t>well|place</t>
   </si>
   <si>
-    <t>great|music|like|100 dollar!-</t>
+    <t>great|music|like|100 dollar</t>
   </si>
   <si>
     <t>find</t>
@@ -5356,13 +5356,13 @@
     <t>delight|place</t>
   </si>
   <si>
-    <t>wonderful|$*!-</t>
+    <t>wonderful|$*</t>
   </si>
   <si>
     <t>delight|atmosphere</t>
   </si>
   <si>
-    <t>great|great|homey|setting|vanilla|music|recommend|$8.50!-</t>
+    <t>great|great|homey|setting|vanilla|music|recommend|$8.50</t>
   </si>
   <si>
     <t>good|request|lady|take|music|taste|moreover|outrageously</t>
@@ -5488,10 +5488,10 @@
     <t>price|food|rice|reasonable</t>
   </si>
   <si>
-    <t>sushi|$20!-</t>
-  </si>
-  <si>
-    <t>price|chip|fish|rice|$15!-</t>
+    <t>sushi|$20</t>
+  </si>
+  <si>
+    <t>price|chip|fish|rice|$15</t>
   </si>
   <si>
     <t>restaurant|city|york|rest|warm</t>
@@ -5500,7 +5500,7 @@
     <t>setting|like</t>
   </si>
   <si>
-    <t>good|meal|though|$60!-</t>
+    <t>good|meal|though|$60</t>
   </si>
   <si>
     <t>away|hidden|place</t>
@@ -5515,13 +5515,13 @@
     <t>season|charge</t>
   </si>
   <si>
-    <t>dinner|manhattan|feet|$400.00!-</t>
+    <t>dinner|manhattan|feet|$400.00</t>
   </si>
   <si>
     <t>garden|area</t>
   </si>
   <si>
-    <t>bland|$11!-</t>
+    <t>bland|$11</t>
   </si>
   <si>
     <t>good|food|place</t>
@@ -5530,7 +5530,7 @@
     <t>high|highly|place|recommend</t>
   </si>
   <si>
-    <t>water|table|voss|bottles|water|piece|$8!-</t>
+    <t>water|table|voss|bottles|water|piece|$8</t>
   </si>
   <si>
     <t>view|river|nyc</t>
@@ -5566,13 +5566,13 @@
     <t>pretty|atmosphere</t>
   </si>
   <si>
-    <t>service|price|dish|rice|average|$10!-</t>
+    <t>service|price|dish|rice|average|$10</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>wine|$500!-</t>
+    <t>wine|$500</t>
   </si>
   <si>
     <t>environment|name</t>
@@ -5587,13 +5587,13 @@
     <t>high|highly</t>
   </si>
   <si>
-    <t>service|$500!-</t>
-  </si>
-  <si>
-    <t>drinks|$14!-</t>
-  </si>
-  <si>
-    <t>would|$55!-</t>
+    <t>service|$500</t>
+  </si>
+  <si>
+    <t>drinks|$14</t>
+  </si>
+  <si>
+    <t>would|$55</t>
   </si>
   <si>
     <t>supposed|good|left|empy|food|would</t>
@@ -5608,10 +5608,10 @@
     <t>good|fresh|food</t>
   </si>
   <si>
-    <t>restaurant|instead|price|rest|place|rice|rice|would|$25!-</t>
-  </si>
-  <si>
-    <t>food|place|$!-</t>
+    <t>restaurant|instead|price|rest|place|rice|rice|would|$25</t>
+  </si>
+  <si>
+    <t>food|place|$</t>
   </si>
   <si>
     <t>lunch|buffet</t>
@@ -5620,7 +5620,7 @@
     <t>place|romantic</t>
   </si>
   <si>
-    <t>stone|bowl|$2!-</t>
+    <t>stone|bowl|$2</t>
   </si>
   <si>
     <t>restaurant|city|rest|romantic</t>
@@ -5629,13 +5629,13 @@
     <t>restaurant|city|rest|sushi|romantic</t>
   </si>
   <si>
-    <t>sake|wonderful|$29!-</t>
+    <t>sake|wonderful|$29</t>
   </si>
   <si>
     <t>great|good|price|rice|reasonable</t>
   </si>
   <si>
-    <t>service|well|$500!-</t>
+    <t>service|well|$500</t>
   </si>
   <si>
     <t>great|good|fresh|service|meal|salad</t>
@@ -5644,7 +5644,7 @@
     <t>good|high|price|food|rice|come|would</t>
   </si>
   <si>
-    <t>restaurant|bland|taste|fish|rest|$24!-</t>
+    <t>restaurant|bland|taste|fish|rest|$24</t>
   </si>
   <si>
     <t>come</t>
@@ -5653,7 +5653,7 @@
     <t>list|reasonable|would|listed</t>
   </si>
   <si>
-    <t>service|$60!-</t>
+    <t>service|$60</t>
   </si>
   <si>
     <t>price|place|rice|average</t>
